--- a/Ursaworks Inventory & Purchase.xlsx
+++ b/Ursaworks Inventory & Purchase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sluya\Documents\reimbursement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sluya\Documents\GitHub\Ursaworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C80152-125D-425F-9292-598F6ACE81B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3874BCE1-87E2-4F8C-9C88-293448273571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="583">
   <si>
     <t>FINANCIAL REPORT</t>
   </si>
@@ -2216,6 +2216,15 @@
   </si>
   <si>
     <t>T-Slot Framing Bar: 20 mm x 20 mm x 10000mm</t>
+  </si>
+  <si>
+    <t>Sentry</t>
+  </si>
+  <si>
+    <t>Lidar</t>
+  </si>
+  <si>
+    <t>Amazon.com: WayPonDEV FHL-LD19 360 Degree 2D Lidar Distance Sensor Kit, 10Hz Scan Rate and 12m Distance Lidar Scanner Module for Smart Obstacle/Robot/Maker Education Indoor/Outdoor : Industrial &amp; Scientific</t>
   </si>
 </sst>
 </file>
@@ -6417,7 +6426,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38:B39"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -9698,7 +9707,7 @@
       <c r="W96" s="17"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="8:24" ht="15.75" customHeight="1">
+    <row r="97" spans="1:24" ht="15.75" customHeight="1">
       <c r="H97" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9712,7 +9721,7 @@
       <c r="W97" s="17"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="8:24" ht="15.75" customHeight="1">
+    <row r="98" spans="1:24" ht="15.75" customHeight="1">
       <c r="H98" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9726,7 +9735,7 @@
       <c r="W98" s="17"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="8:24" ht="15.75" customHeight="1">
+    <row r="99" spans="1:24" ht="15.75" customHeight="1">
       <c r="H99" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9740,7 +9749,10 @@
       <c r="W99" s="17"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="8:24" ht="15.75" customHeight="1">
+    <row r="100" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A100" t="s">
+        <v>580</v>
+      </c>
       <c r="H100" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9754,7 +9766,13 @@
       <c r="W100" s="17"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="8:24" ht="15.75" customHeight="1">
+    <row r="101" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A101" t="s">
+        <v>581</v>
+      </c>
+      <c r="E101" s="116" t="s">
+        <v>582</v>
+      </c>
       <c r="H101" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9768,7 +9786,7 @@
       <c r="W101" s="17"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="8:24" ht="15.75" customHeight="1">
+    <row r="102" spans="1:24" ht="15.75" customHeight="1">
       <c r="H102" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9782,7 +9800,7 @@
       <c r="W102" s="17"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="8:24" ht="15.75" customHeight="1">
+    <row r="103" spans="1:24" ht="15.75" customHeight="1">
       <c r="H103" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9796,7 +9814,7 @@
       <c r="W103" s="17"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="8:24" ht="15.75" customHeight="1">
+    <row r="104" spans="1:24" ht="15.75" customHeight="1">
       <c r="M104" s="122"/>
       <c r="N104" s="1"/>
       <c r="O104" s="24"/>
@@ -9806,7 +9824,7 @@
       <c r="W104" s="17"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="8:24" ht="15.75" customHeight="1">
+    <row r="105" spans="1:24" ht="15.75" customHeight="1">
       <c r="M105" s="122"/>
       <c r="N105" s="1"/>
       <c r="O105" s="24"/>
@@ -9816,7 +9834,7 @@
       <c r="W105" s="17"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="8:24" ht="15.75" customHeight="1">
+    <row r="106" spans="1:24" ht="15.75" customHeight="1">
       <c r="M106" s="122"/>
       <c r="N106" s="1"/>
       <c r="O106" s="24"/>
@@ -9826,7 +9844,7 @@
       <c r="W106" s="17"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="8:24" ht="15.75" customHeight="1">
+    <row r="107" spans="1:24" ht="15.75" customHeight="1">
       <c r="M107" s="122"/>
       <c r="N107" s="1"/>
       <c r="O107" s="24"/>
@@ -9836,7 +9854,7 @@
       <c r="W107" s="17"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="8:24" ht="15.75" customHeight="1">
+    <row r="108" spans="1:24" ht="15.75" customHeight="1">
       <c r="M108" s="122"/>
       <c r="N108" s="1"/>
       <c r="O108" s="24"/>
@@ -9847,7 +9865,7 @@
       <c r="W108" s="17"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="8:24" ht="15.75" customHeight="1">
+    <row r="109" spans="1:24" ht="15.75" customHeight="1">
       <c r="M109" s="122"/>
       <c r="N109" s="1"/>
       <c r="O109" s="24"/>
@@ -9858,7 +9876,7 @@
       <c r="W109" s="17"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="8:24" ht="15.75" customHeight="1">
+    <row r="110" spans="1:24" ht="15.75" customHeight="1">
       <c r="M110" s="122"/>
       <c r="N110" s="1"/>
       <c r="O110" s="24"/>
@@ -9869,7 +9887,7 @@
       <c r="W110" s="17"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="8:24" ht="15.75" customHeight="1">
+    <row r="111" spans="1:24" ht="15.75" customHeight="1">
       <c r="M111" s="122"/>
       <c r="N111" s="1"/>
       <c r="O111" s="24"/>
@@ -9880,7 +9898,7 @@
       <c r="W111" s="17"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="8:24" ht="15.75" customHeight="1">
+    <row r="112" spans="1:24" ht="15.75" customHeight="1">
       <c r="M112" s="122"/>
       <c r="N112" s="1"/>
       <c r="O112" s="24"/>
@@ -13488,15 +13506,16 @@
     <hyperlink ref="E18" r:id="rId16" display="https://www.amazon.com/dp/B0C6XLS3CT?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{1722CC90-C648-4234-8233-358B532E3D54}"/>
     <hyperlink ref="E19" r:id="rId17" display="https://www.amazon.com/dp/B08TVLYB3Q?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1&amp;th=1" xr:uid="{A4E46ED3-3487-4D3E-A5DA-BCA72136E987}"/>
     <hyperlink ref="E36" r:id="rId18" display="https://www.amazon.com/dp/B08PQPJYHX?ref=ppx_yo2ov_dt_b_fed_asin_title" xr:uid="{C57A72A9-40AF-4547-9693-AC015D139A5D}"/>
+    <hyperlink ref="E101" r:id="rId19" display="https://www.amazon.com/gp/product/B0B1V8D36H?smid=A3FZJTJP2FUJVA&amp;psc=1" xr:uid="{B928DAC3-AD15-48CD-9DB3-A8FADFC3338D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId20"/>
   <tableParts count="5">
-    <tablePart r:id="rId20"/>
     <tablePart r:id="rId21"/>
     <tablePart r:id="rId22"/>
     <tablePart r:id="rId23"/>
     <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Ursaworks Inventory & Purchase.xlsx
+++ b/Ursaworks Inventory & Purchase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sluya\Documents\GitHub\Ursaworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sluya\Documents\reimbursement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3874BCE1-87E2-4F8C-9C88-293448273571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C80152-125D-425F-9292-598F6ACE81B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="580">
   <si>
     <t>FINANCIAL REPORT</t>
   </si>
@@ -2216,15 +2216,6 @@
   </si>
   <si>
     <t>T-Slot Framing Bar: 20 mm x 20 mm x 10000mm</t>
-  </si>
-  <si>
-    <t>Sentry</t>
-  </si>
-  <si>
-    <t>Lidar</t>
-  </si>
-  <si>
-    <t>Amazon.com: WayPonDEV FHL-LD19 360 Degree 2D Lidar Distance Sensor Kit, 10Hz Scan Rate and 12m Distance Lidar Scanner Module for Smart Obstacle/Robot/Maker Education Indoor/Outdoor : Industrial &amp; Scientific</t>
   </si>
 </sst>
 </file>
@@ -6426,7 +6417,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -9707,7 +9698,7 @@
       <c r="W96" s="17"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="1:24" ht="15.75" customHeight="1">
+    <row r="97" spans="8:24" ht="15.75" customHeight="1">
       <c r="H97" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9721,7 +9712,7 @@
       <c r="W97" s="17"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="1:24" ht="15.75" customHeight="1">
+    <row r="98" spans="8:24" ht="15.75" customHeight="1">
       <c r="H98" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9735,7 +9726,7 @@
       <c r="W98" s="17"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="1:24" ht="15.75" customHeight="1">
+    <row r="99" spans="8:24" ht="15.75" customHeight="1">
       <c r="H99" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9749,10 +9740,7 @@
       <c r="W99" s="17"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A100" t="s">
-        <v>580</v>
-      </c>
+    <row r="100" spans="8:24" ht="15.75" customHeight="1">
       <c r="H100" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9766,13 +9754,7 @@
       <c r="W100" s="17"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A101" t="s">
-        <v>581</v>
-      </c>
-      <c r="E101" s="116" t="s">
-        <v>582</v>
-      </c>
+    <row r="101" spans="8:24" ht="15.75" customHeight="1">
       <c r="H101" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9786,7 +9768,7 @@
       <c r="W101" s="17"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="1:24" ht="15.75" customHeight="1">
+    <row r="102" spans="8:24" ht="15.75" customHeight="1">
       <c r="H102" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9800,7 +9782,7 @@
       <c r="W102" s="17"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="1:24" ht="15.75" customHeight="1">
+    <row r="103" spans="8:24" ht="15.75" customHeight="1">
       <c r="H103" s="123" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9814,7 +9796,7 @@
       <c r="W103" s="17"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="1:24" ht="15.75" customHeight="1">
+    <row r="104" spans="8:24" ht="15.75" customHeight="1">
       <c r="M104" s="122"/>
       <c r="N104" s="1"/>
       <c r="O104" s="24"/>
@@ -9824,7 +9806,7 @@
       <c r="W104" s="17"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="1:24" ht="15.75" customHeight="1">
+    <row r="105" spans="8:24" ht="15.75" customHeight="1">
       <c r="M105" s="122"/>
       <c r="N105" s="1"/>
       <c r="O105" s="24"/>
@@ -9834,7 +9816,7 @@
       <c r="W105" s="17"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="1:24" ht="15.75" customHeight="1">
+    <row r="106" spans="8:24" ht="15.75" customHeight="1">
       <c r="M106" s="122"/>
       <c r="N106" s="1"/>
       <c r="O106" s="24"/>
@@ -9844,7 +9826,7 @@
       <c r="W106" s="17"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="1:24" ht="15.75" customHeight="1">
+    <row r="107" spans="8:24" ht="15.75" customHeight="1">
       <c r="M107" s="122"/>
       <c r="N107" s="1"/>
       <c r="O107" s="24"/>
@@ -9854,7 +9836,7 @@
       <c r="W107" s="17"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="1:24" ht="15.75" customHeight="1">
+    <row r="108" spans="8:24" ht="15.75" customHeight="1">
       <c r="M108" s="122"/>
       <c r="N108" s="1"/>
       <c r="O108" s="24"/>
@@ -9865,7 +9847,7 @@
       <c r="W108" s="17"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="1:24" ht="15.75" customHeight="1">
+    <row r="109" spans="8:24" ht="15.75" customHeight="1">
       <c r="M109" s="122"/>
       <c r="N109" s="1"/>
       <c r="O109" s="24"/>
@@ -9876,7 +9858,7 @@
       <c r="W109" s="17"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="1:24" ht="15.75" customHeight="1">
+    <row r="110" spans="8:24" ht="15.75" customHeight="1">
       <c r="M110" s="122"/>
       <c r="N110" s="1"/>
       <c r="O110" s="24"/>
@@ -9887,7 +9869,7 @@
       <c r="W110" s="17"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="1:24" ht="15.75" customHeight="1">
+    <row r="111" spans="8:24" ht="15.75" customHeight="1">
       <c r="M111" s="122"/>
       <c r="N111" s="1"/>
       <c r="O111" s="24"/>
@@ -9898,7 +9880,7 @@
       <c r="W111" s="17"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="1:24" ht="15.75" customHeight="1">
+    <row r="112" spans="8:24" ht="15.75" customHeight="1">
       <c r="M112" s="122"/>
       <c r="N112" s="1"/>
       <c r="O112" s="24"/>
@@ -13506,16 +13488,15 @@
     <hyperlink ref="E18" r:id="rId16" display="https://www.amazon.com/dp/B0C6XLS3CT?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{1722CC90-C648-4234-8233-358B532E3D54}"/>
     <hyperlink ref="E19" r:id="rId17" display="https://www.amazon.com/dp/B08TVLYB3Q?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1&amp;th=1" xr:uid="{A4E46ED3-3487-4D3E-A5DA-BCA72136E987}"/>
     <hyperlink ref="E36" r:id="rId18" display="https://www.amazon.com/dp/B08PQPJYHX?ref=ppx_yo2ov_dt_b_fed_asin_title" xr:uid="{C57A72A9-40AF-4547-9693-AC015D139A5D}"/>
-    <hyperlink ref="E101" r:id="rId19" display="https://www.amazon.com/gp/product/B0B1V8D36H?smid=A3FZJTJP2FUJVA&amp;psc=1" xr:uid="{B928DAC3-AD15-48CD-9DB3-A8FADFC3338D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId20"/>
+  <drawing r:id="rId19"/>
   <tableParts count="5">
+    <tablePart r:id="rId20"/>
     <tablePart r:id="rId21"/>
     <tablePart r:id="rId22"/>
     <tablePart r:id="rId23"/>
     <tablePart r:id="rId24"/>
-    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Ursaworks Inventory & Purchase.xlsx
+++ b/Ursaworks Inventory & Purchase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sluya\Documents\GitHub\Ursaworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3874BCE1-87E2-4F8C-9C88-293448273571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CB395F-9FCC-46D2-B60C-F63435A6DB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,6 @@
     <sheet name="Inventory" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjMBw7TV2+tYX5Q9/GtLyz0s4PMbQ=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -299,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="622">
   <si>
     <t>FINANCIAL REPORT</t>
   </si>
@@ -2074,12 +2069,6 @@
     <t>Birdhouse Townhouse - Townhouses for Rent in San Diego, California, United States - Airbnb</t>
   </si>
   <si>
-    <t>Aluminum 6061-T6 Sheet W/ Pvc 1 Side .125" X 1' X 2' | Sheet and Plate</t>
-  </si>
-  <si>
-    <t>Aluminum 6061-T6 - .125" X 12" x 24"</t>
-  </si>
-  <si>
     <t>STANDARD</t>
   </si>
   <si>
@@ -2218,25 +2207,150 @@
     <t>T-Slot Framing Bar: 20 mm x 20 mm x 10000mm</t>
   </si>
   <si>
-    <t>Sentry</t>
-  </si>
-  <si>
     <t>Lidar</t>
   </si>
   <si>
     <t>Amazon.com: WayPonDEV FHL-LD19 360 Degree 2D Lidar Distance Sensor Kit, 10Hz Scan Rate and 12m Distance Lidar Scanner Module for Smart Obstacle/Robot/Maker Education Indoor/Outdoor : Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>m.intl.taobao.com/detail/detail.html?spm=a230r.1.14.20.419a37c9WRBzbv&amp;id=597604313584&amp;ns=1&amp;abbucket=13#detail</t>
+  </si>
+  <si>
+    <t>Aluminum 6061-T6 - .125" X 36" x 36"</t>
+  </si>
+  <si>
+    <t>Aluminum 6061-T6 Sheet W/ Pvc 1 Side .125" X 3' X 4' | Sheet and Plate</t>
+  </si>
+  <si>
+    <t>Hikvision High Speed Camera</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>1309 Series Sonic Hub</t>
+  </si>
+  <si>
+    <t>HERO - Gimbal Extension</t>
+  </si>
+  <si>
+    <t>HERO - Chassis</t>
+  </si>
+  <si>
+    <t>RoboMaster M3508 P19 Brushless DC Gear Motor</t>
+  </si>
+  <si>
+    <t>HERO - Gimbal</t>
+  </si>
+  <si>
+    <t>flywheel motor</t>
+  </si>
+  <si>
+    <t>offline purchase form</t>
+  </si>
+  <si>
+    <t>Gimbal Container Ammo Booster</t>
+  </si>
+  <si>
+    <t>Indexer motor</t>
+  </si>
+  <si>
+    <t>Drag Chain</t>
+  </si>
+  <si>
+    <t>Cable management solution</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Carrier-10x10mm-Plastic-Connector-Screwdriver/dp/B096MK34FG/ref=asc_df_B096MK34FG/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693270340020&amp;hvpos=&amp;hvnetw=g&amp;hvrand=18348483203667539022&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9022860&amp;hvtargid=pla-1950583164845&amp;mcid=86cc09e81d9f3a3dab59edacf8c9f837&amp;th=1</t>
+  </si>
+  <si>
+    <t>6061 Aluminum Plate 36'' x 48'' x 0.125</t>
+  </si>
+  <si>
+    <t>base plate</t>
+  </si>
+  <si>
+    <t>base plate repair</t>
+  </si>
+  <si>
+    <t>STANDARD - Chassis</t>
+  </si>
+  <si>
+    <t>Estimated pricing</t>
+  </si>
+  <si>
+    <t>Moflon Model RT3899-P0610-S06 Slip Ring | eBay</t>
+  </si>
+  <si>
+    <t>for manufacturing when school equipment is not available</t>
+  </si>
+  <si>
+    <t>Arch Reactor Makerspace Monthly Fee</t>
+  </si>
+  <si>
+    <t>Baiming Zhang</t>
+  </si>
+  <si>
+    <t>TRAVEL</t>
+  </si>
+  <si>
+    <t>MV-CU013-A0GC</t>
+  </si>
+  <si>
+    <t>MVL-HF0628M-6MPE</t>
+  </si>
+  <si>
+    <t>Hikvision Lens</t>
+  </si>
+  <si>
+    <t>AUTONOMY</t>
+  </si>
+  <si>
+    <t>Purdue AirBnB</t>
+  </si>
+  <si>
+    <t>550 total travel miles, assuming 35 mpg and $3/gal fo 2 cars</t>
+  </si>
+  <si>
+    <t>Purdue Gas Price</t>
+  </si>
+  <si>
+    <t>2024 Aluminum Square Bar 0.5'' x 1.5" x 24"</t>
+  </si>
+  <si>
+    <t>HERO - Suspension</t>
+  </si>
+  <si>
+    <t>Alloy 2024 Aluminum Square Bar - 1 1/2" x 1 1/2" x 24" (3L4) - Shapiro Metal Supply</t>
+  </si>
+  <si>
+    <t>suspension pieces</t>
+  </si>
+  <si>
+    <t>RoboMaster C620 Brushless DC Motor Speed Controller</t>
+  </si>
+  <si>
+    <t>RoboMaster GM6020 Brushless DC Motor</t>
+  </si>
+  <si>
+    <t>RoboMaster Development Board Type C</t>
+  </si>
+  <si>
+    <t>RoboMaster Development Board Type A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="51">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2520,8 +2634,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2597,6 +2725,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2745,11 +2879,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2930,6 +3070,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2942,12 +3084,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{4C243137-1103-47A4-964A-12FBCC4F93CA}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{AB297A27-AB41-4366-8506-317F591993F2}"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="53">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2995,6 +3146,196 @@
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3231,50 +3572,72 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="8">
+  <tableStyles count="10">
     <tableStyle name="Financial Report-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="52"/>
+      <tableStyleElement type="firstRowStripe" dxfId="51"/>
+      <tableStyleElement type="secondRowStripe" dxfId="50"/>
+    </tableStyle>
+    <tableStyle name="Financial Report-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="firstRowStripe" dxfId="48"/>
+      <tableStyleElement type="secondRowStripe" dxfId="47"/>
+    </tableStyle>
+    <tableStyle name="Financial Report-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="secondRowStripe" dxfId="44"/>
+    </tableStyle>
+    <tableStyle name="Financial Report-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+    </tableStyle>
+    <tableStyle name="Financial Report-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
+    </tableStyle>
+    <tableStyle name="Inventory-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
+      <tableStyleElement type="secondRowStripe" dxfId="35"/>
+    </tableStyle>
+    <tableStyle name="Inventory-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
       <tableStyleElement type="headerRow" dxfId="34"/>
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Financial Report-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Inventory-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
       <tableStyleElement type="secondRowStripe" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="Financial Report-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{AF32DF62-431C-4A18-B0AF-B07B376BF1AD}">
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="lastColumn" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="Financial Report-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
-    </tableStyle>
-    <tableStyle name="Financial Report-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
-    </tableStyle>
-    <tableStyle name="Inventory-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
-    </tableStyle>
-    <tableStyle name="Inventory-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{935477D3-6BBF-4139-A450-F13C428E8173}">
       <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
-    </tableStyle>
-    <tableStyle name="Inventory-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -3363,9 +3726,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Financial Report'!$O$7:$O$10</c:f>
+              <c:f>'Financial Report'!$O$7:$O$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>OPERATIONS</c:v>
                 </c:pt>
@@ -3377,6 +3740,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>SENTRY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TRAVEL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3390,21 +3756,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Financial Report'!$Q$7:$Q$10</c:f>
+              <c:f>'Financial Report'!$Q$7:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>834.34</c:v>
+                  <c:v>984.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.99</c:v>
+                  <c:v>531.49699999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.45000000000002</c:v>
+                  <c:v>1120.355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>280.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4616.4160000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,12 +3866,12 @@
                           <c15:sqref>'Financial Report'!$O$7:$O$12</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'Financial Report'!$O$7:$O$10</c15:sqref>
+                          <c15:sqref>'Financial Report'!$O$7:$O$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>OPERATIONS</c:v>
                       </c:pt>
@@ -3515,6 +3884,9 @@
                       <c:pt idx="3">
                         <c:v>SENTRY</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>TRAVEL</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -3526,24 +3898,24 @@
                           <c15:sqref>'Financial Report'!$R$7:$R$12</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'Financial Report'!$R$7:$R$10</c15:sqref>
+                          <c15:sqref>'Financial Report'!$R$7:$R$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>"$"#,##0.00</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>265.65999999999997</c:v>
+                        <c:v>115.65999999999997</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-11.990000000000009</c:v>
+                        <c:v>-331.49699999999996</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1372.55</c:v>
+                        <c:v>479.64499999999998</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1600</c:v>
+                        <c:v>1319.3600000000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3812,7 +4184,7 @@
               </c:extLst>
               <c:f>('Financial Report'!$O$7:$O$9,'Financial Report'!$O$11)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>OPERATIONS</c:v>
                 </c:pt>
@@ -3821,6 +4193,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>HERO </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TRAVEL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4531,7 +4906,7 @@
             <c:strRef>
               <c:f>'Financial Report'!$O$7:$O$12</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>OPERATIONS</c:v>
                 </c:pt>
@@ -4544,6 +4919,9 @@
                 <c:pt idx="3">
                   <c:v>SENTRY</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>TRAVEL</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -4554,16 +4932,19 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>834.34</c:v>
+                  <c:v>984.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.99</c:v>
+                  <c:v>531.49699999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.45000000000002</c:v>
+                  <c:v>1120.355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>280.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4616.4160000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4637,7 +5018,7 @@
             <c:strRef>
               <c:f>'Financial Report'!$O$7:$O$12</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>OPERATIONS</c:v>
                 </c:pt>
@@ -4650,6 +5031,9 @@
                 <c:pt idx="3">
                   <c:v>SENTRY</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>TRAVEL</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -4660,16 +5044,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>265.65999999999997</c:v>
+                  <c:v>115.65999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11.990000000000009</c:v>
+                  <c:v>-331.49699999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1372.55</c:v>
+                  <c:v>479.64499999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600</c:v>
+                  <c:v>1319.3600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4975,7 +5359,7 @@
             <c:strRef>
               <c:f>'Financial Report'!$O$7:$O$12</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>OPERATIONS</c:v>
                 </c:pt>
@@ -4987,6 +5371,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>SENTRY</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TRAVEL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5938,7 +6325,7 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="Financial Report-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -6037,14 +6424,14 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8" dataDxfId="27">
       <calculatedColumnFormula>IF(F31="","",(G31*F31))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="Financial Report-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -6065,14 +6452,14 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column6"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column8" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column8" dataDxfId="25">
       <calculatedColumnFormula>IF(F55="","",(G55*F55))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Column11"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Column13" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Column13" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="Financial Report-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -6093,7 +6480,9 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Column6"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Column8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Column8" dataDxfId="0">
+      <calculatedColumnFormula>IF(F104="","",(G104*F104))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Column9"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Column11"/>
@@ -6426,7 +6815,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -6459,14 +6848,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="45.75">
-      <c r="A1" s="129"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="130" t="s">
+      <c r="A1" s="131"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -6487,9 +6876,9 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="45.75">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -6513,9 +6902,9 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="45.75">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -6531,25 +6920,25 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="131" t="s">
-        <v>575</v>
-      </c>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
+      <c r="O3" s="133" t="s">
+        <v>573</v>
+      </c>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="131" t="s">
+      <c r="T3" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="45.75">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
@@ -6567,21 +6956,21 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:30" ht="46.5" thickBot="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
@@ -6593,15 +6982,15 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
@@ -6645,10 +7034,10 @@
         <v>19</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="132" t="s">
-        <v>577</v>
-      </c>
-      <c r="P6" s="133"/>
+      <c r="O6" s="134" t="s">
+        <v>575</v>
+      </c>
+      <c r="P6" s="135"/>
       <c r="Q6" s="9" t="s">
         <v>21</v>
       </c>
@@ -6656,10 +7045,10 @@
         <v>22</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="132" t="s">
+      <c r="T6" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="133"/>
+      <c r="U6" s="135"/>
       <c r="V6" s="9" t="s">
         <v>21</v>
       </c>
@@ -6676,8 +7065,8 @@
         <v>25</v>
       </c>
       <c r="C7" s="15">
-        <f>SUM(H8:H19)</f>
-        <v>834.34</v>
+        <f>SUM(H8:H16)</f>
+        <v>984.34</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -6698,11 +7087,11 @@
       </c>
       <c r="Q7" s="19">
         <f>C7</f>
-        <v>834.34</v>
+        <v>984.34</v>
       </c>
       <c r="R7" s="20">
         <f t="shared" ref="R7:R13" si="0">P7-Q7</f>
-        <v>265.65999999999997</v>
+        <v>115.65999999999997</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="21" t="s">
@@ -6713,11 +7102,11 @@
       </c>
       <c r="V7" s="22">
         <f>C7</f>
-        <v>834.34</v>
+        <v>984.34</v>
       </c>
       <c r="W7" s="23">
         <f t="shared" ref="W7:W14" si="1">U7-V7</f>
-        <v>-534.34</v>
+        <v>-684.34</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Z7" s="16"/>
@@ -6751,27 +7140,32 @@
       <c r="I8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="125" t="s">
-        <v>576</v>
+      <c r="J8" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="K8" s="115" t="s">
         <v>521</v>
       </c>
-      <c r="M8" s="122"/>
+      <c r="L8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="139" t="s">
+        <v>574</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="P8" s="19">
         <v>200</v>
       </c>
       <c r="Q8" s="19">
         <f>C34</f>
-        <v>211.99</v>
+        <v>531.49699999999996</v>
       </c>
       <c r="R8" s="20">
         <f t="shared" si="0"/>
-        <v>-11.990000000000009</v>
+        <v>-331.49699999999996</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="13" t="s">
@@ -6782,11 +7176,11 @@
       </c>
       <c r="V8" s="19">
         <f>C34</f>
-        <v>211.99</v>
+        <v>531.49699999999996</v>
       </c>
       <c r="W8" s="20">
         <f t="shared" si="1"/>
-        <v>1288.01</v>
+        <v>968.50300000000004</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Z8" s="16"/>
@@ -6814,19 +7208,24 @@
         <v>1</v>
       </c>
       <c r="H9" s="27">
-        <f t="shared" ref="H9:H19" si="2">IF(F9="","",(G9*F9))</f>
+        <f t="shared" ref="H9:H18" si="2">IF(F9="","",(G9*F9))</f>
         <v>260</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="125" t="s">
-        <v>576</v>
+      <c r="J9" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="K9" s="115" t="s">
         <v>521</v>
       </c>
-      <c r="M9" s="122"/>
+      <c r="L9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="139" t="s">
+        <v>574</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="13" t="s">
         <v>45</v>
@@ -6836,11 +7235,11 @@
       </c>
       <c r="Q9" s="19">
         <f>C55</f>
-        <v>227.45000000000002</v>
+        <v>1120.355</v>
       </c>
       <c r="R9" s="20">
         <f t="shared" si="0"/>
-        <v>1372.55</v>
+        <v>479.64499999999998</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="13" t="s">
@@ -6851,17 +7250,17 @@
       </c>
       <c r="V9" s="19">
         <f>C55</f>
-        <v>227.45000000000002</v>
+        <v>1120.355</v>
       </c>
       <c r="W9" s="20">
         <f t="shared" si="1"/>
-        <v>572.54999999999995</v>
+        <v>-320.35500000000002</v>
       </c>
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A10" s="24" t="s">
-        <v>524</v>
+      <c r="A10" s="40" t="s">
+        <v>536</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>98</v>
@@ -6871,23 +7270,33 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="116" t="s">
-        <v>525</v>
-      </c>
-      <c r="F10" s="19">
-        <v>414.47</v>
-      </c>
-      <c r="G10" s="16"/>
+        <v>537</v>
+      </c>
+      <c r="F10" s="37">
+        <v>11.99</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
       <c r="H10" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(F10="","",(G10*F10))</f>
+        <v>11.99</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="117" t="s">
-        <v>526</v>
-      </c>
-      <c r="M10" s="122"/>
+      <c r="J10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="137" t="s">
+        <v>584</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="13" t="s">
         <v>54</v>
@@ -6896,12 +7305,12 @@
         <v>1600</v>
       </c>
       <c r="Q10" s="19">
-        <f>0</f>
-        <v>0</v>
+        <f>C100</f>
+        <v>280.64</v>
       </c>
       <c r="R10" s="20">
         <f>P10-Q10</f>
-        <v>1600</v>
+        <v>1319.3600000000001</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="13" t="s">
@@ -6910,13 +7319,13 @@
       <c r="U10" s="19">
         <v>1200</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="19" t="str">
         <f>C104</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="20">
+        <v>HERO - Chassis</v>
+      </c>
+      <c r="W10" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Z10" s="34" t="s">
@@ -6928,8 +7337,8 @@
       <c r="AD10" s="34"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A11" s="24" t="s">
-        <v>527</v>
+      <c r="A11" s="119" t="s">
+        <v>539</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>98</v>
@@ -6937,31 +7346,43 @@
       <c r="C11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="E11" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="19">
-        <f>118*9</f>
-        <v>1062</v>
-      </c>
-      <c r="G11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="116" t="s">
+        <v>538</v>
+      </c>
+      <c r="F11" s="37">
+        <v>3.99</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
       <c r="H11" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(F11="","",(G11*F11))</f>
+        <v>3.99</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="117" t="s">
-        <v>526</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
+      <c r="J11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="137" t="s">
+        <v>584</v>
+      </c>
       <c r="N11" s="1"/>
+      <c r="O11" s="138" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q11" s="123">
+        <f>C20</f>
+        <v>4616.4160000000002</v>
+      </c>
       <c r="R11" s="120"/>
       <c r="S11" s="1"/>
       <c r="T11" s="13" t="s">
@@ -6986,8 +7407,8 @@
       <c r="AD11" s="34"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>529</v>
+      <c r="A12" s="40" t="s">
+        <v>540</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>98</v>
@@ -6995,27 +7416,35 @@
       <c r="C12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>530</v>
-      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="116" t="s">
-        <v>531</v>
-      </c>
-      <c r="F12" s="19">
-        <v>451</v>
-      </c>
-      <c r="G12" s="16"/>
+        <v>541</v>
+      </c>
+      <c r="F12" s="37">
+        <v>8.99</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
       <c r="H12" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(F12="","",(G12*F12))</f>
+        <v>8.99</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="117" t="s">
-        <v>526</v>
-      </c>
-      <c r="M12" s="122"/>
+      <c r="J12" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="137" t="s">
+        <v>584</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="13"/>
       <c r="P12" s="27"/>
@@ -7045,16 +7474,40 @@
       <c r="AD12" s="34"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
-      <c r="C13" s="25"/>
-      <c r="D13" s="16"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="M13" s="122"/>
+      <c r="A13" s="118" t="s">
+        <v>556</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="116" t="s">
+        <v>557</v>
+      </c>
+      <c r="F13" s="37">
+        <v>21.59</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="27">
+        <f>IF(F13="","",(G13*F13))</f>
+        <v>21.59</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="137" t="s">
+        <v>584</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="13" t="s">
         <v>65</v>
@@ -7065,11 +7518,11 @@
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="3"/>
-        <v>1273.78</v>
+        <v>7533.2479999999996</v>
       </c>
       <c r="R13" s="20">
         <f t="shared" si="0"/>
-        <v>3226.2200000000003</v>
+        <v>-3033.2479999999996</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="13" t="s">
@@ -7097,9 +7550,9 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>538</v>
-      </c>
-      <c r="B14" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="B14" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -7107,21 +7560,19 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="116" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="F14" s="37">
-        <v>11.99</v>
+        <v>22.39</v>
       </c>
       <c r="G14" s="16">
         <v>1</v>
       </c>
       <c r="H14" s="27">
-        <f t="shared" si="2"/>
-        <v>11.99</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>42</v>
-      </c>
+        <f>IF(F14="","",(G14*F14))</f>
+        <v>22.39</v>
+      </c>
+      <c r="I14" s="16"/>
       <c r="J14" s="29" t="s">
         <v>32</v>
       </c>
@@ -7131,8 +7582,8 @@
       <c r="L14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="52" t="s">
-        <v>139</v>
+      <c r="M14" s="137" t="s">
+        <v>584</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="13" t="s">
@@ -7151,11 +7602,11 @@
       </c>
       <c r="V14" s="19">
         <f>SUM(Q7:Q12)</f>
-        <v>1273.78</v>
+        <v>7533.2479999999996</v>
       </c>
       <c r="W14" s="20">
         <f t="shared" si="1"/>
-        <v>5726.22</v>
+        <v>-533.24799999999959</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Z14" s="34" t="s">
@@ -7167,8 +7618,8 @@
       <c r="AD14" s="34"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A15" s="119" t="s">
-        <v>541</v>
+      <c r="A15" s="40" t="s">
+        <v>563</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>98</v>
@@ -7178,21 +7629,19 @@
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="116" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="F15" s="37">
-        <v>3.99</v>
+        <v>5.39</v>
       </c>
       <c r="G15" s="16">
         <v>1</v>
       </c>
       <c r="H15" s="27">
-        <f t="shared" si="2"/>
-        <v>3.99</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>42</v>
-      </c>
+        <f>IF(F15="","",(G15*F15))</f>
+        <v>5.39</v>
+      </c>
+      <c r="I15" s="16"/>
       <c r="J15" s="29" t="s">
         <v>32</v>
       </c>
@@ -7202,8 +7651,8 @@
       <c r="L15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="52" t="s">
-        <v>139</v>
+      <c r="M15" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="24"/>
@@ -7222,31 +7671,27 @@
       <c r="AD15" s="34"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A16" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="118" t="s">
+        <v>604</v>
+      </c>
+      <c r="B16" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="116" t="s">
-        <v>543</v>
-      </c>
-      <c r="F16" s="37">
-        <v>8.99</v>
-      </c>
-      <c r="G16" s="16">
-        <v>1</v>
+      <c r="D16" s="118" t="s">
+        <v>603</v>
+      </c>
+      <c r="F16" s="136">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
       <c r="H16" s="27">
-        <f t="shared" si="2"/>
-        <v>8.99</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>42</v>
+        <f>IF(F16="","",(G16*F16))</f>
+        <v>150</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>32</v>
@@ -7257,8 +7702,8 @@
       <c r="L16" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="52" t="s">
-        <v>139</v>
+      <c r="M16" s="139" t="s">
+        <v>574</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="24"/>
@@ -7276,40 +7721,7 @@
       <c r="AD16" s="34"/>
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A17" s="118" t="s">
-        <v>558</v>
-      </c>
-      <c r="B17" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="116" t="s">
-        <v>559</v>
-      </c>
-      <c r="F17" s="37">
-        <v>21.59</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="27">
-        <f t="shared" si="2"/>
-        <v>21.59</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="115" t="s">
-        <v>521</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="52" t="s">
-        <v>139</v>
-      </c>
+      <c r="M17" s="122"/>
       <c r="N17" s="1"/>
       <c r="O17" s="24"/>
       <c r="R17" s="17"/>
@@ -7326,42 +7738,7 @@
       <c r="AD17" s="34"/>
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A18" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="B18" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="116" t="s">
-        <v>562</v>
-      </c>
-      <c r="F18" s="37">
-        <v>22.39</v>
-      </c>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="27">
-        <f t="shared" si="2"/>
-        <v>22.39</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="115" t="s">
-        <v>521</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="52" t="s">
-        <v>139</v>
-      </c>
+      <c r="M18" s="122"/>
       <c r="N18" s="1"/>
       <c r="O18" s="24"/>
       <c r="R18" s="17"/>
@@ -7376,42 +7753,7 @@
       <c r="AD18" s="34"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A19" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="116" t="s">
-        <v>564</v>
-      </c>
-      <c r="F19" s="37">
-        <v>5.39</v>
-      </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="27">
-        <f t="shared" si="2"/>
-        <v>5.39</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="115" t="s">
-        <v>521</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="52" t="s">
-        <v>139</v>
-      </c>
+      <c r="M19" s="122"/>
       <c r="N19" s="1"/>
       <c r="O19" s="24"/>
       <c r="R19" s="17"/>
@@ -7430,6 +7772,10 @@
       <c r="AD19" s="34"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1">
+      <c r="C20" s="123">
+        <f>SUM(H21:H25)</f>
+        <v>4616.4160000000002</v>
+      </c>
       <c r="M20" s="122"/>
       <c r="N20" s="1"/>
       <c r="O20" s="24"/>
@@ -7449,7 +7795,39 @@
       <c r="AD20" s="34"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1">
-      <c r="M21" s="122"/>
+      <c r="A21" s="118" t="s">
+        <v>611</v>
+      </c>
+      <c r="B21" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="F21" s="19">
+        <v>755.37</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="27">
+        <f>IF(F21="","",(G21*F21))</f>
+        <v>755.37</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="139" t="s">
+        <v>574</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="24"/>
       <c r="R21" s="17"/>
@@ -7468,6 +7846,31 @@
       <c r="AD21" s="34"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A22" s="118" t="s">
+        <v>613</v>
+      </c>
+      <c r="B22" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="D22" s="118" t="s">
+        <v>612</v>
+      </c>
+      <c r="F22" s="127">
+        <v>47.143000000000001</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="27">
+        <f>IF(F22="","",(G22*F22))</f>
+        <v>94.286000000000001</v>
+      </c>
+      <c r="J22" s="117" t="s">
+        <v>526</v>
+      </c>
       <c r="M22" s="122"/>
       <c r="N22" s="1"/>
       <c r="O22" s="24"/>
@@ -7485,6 +7888,35 @@
       <c r="AD22" s="34"/>
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="116" t="s">
+        <v>525</v>
+      </c>
+      <c r="F23" s="19">
+        <v>414.47</v>
+      </c>
+      <c r="G23" s="16">
+        <v>8</v>
+      </c>
+      <c r="H23" s="27">
+        <f>IF(F23="","",(G23*F23))</f>
+        <v>3315.76</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="117" t="s">
+        <v>526</v>
+      </c>
       <c r="M23" s="122"/>
       <c r="N23" s="1"/>
       <c r="O23" s="24"/>
@@ -7502,19 +7934,39 @@
       <c r="AD23" s="34"/>
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="E24" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="19">
+        <f>118*9</f>
+        <v>1062</v>
+      </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="27" t="str">
-        <f t="shared" ref="H24:H29" si="4">IF(F24="","",(G24*F24))</f>
-        <v/>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="M24" s="122"/>
+      <c r="H24" s="27">
+        <f>IF(F24="","",(G24*F24))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="117" t="s">
+        <v>526</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="17"/>
       <c r="N24" s="1"/>
       <c r="O24" s="24"/>
       <c r="R24" s="17"/>
@@ -7529,18 +7981,37 @@
       <c r="AD24" s="34"/>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I25" s="16"/>
+      <c r="A25" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="E25" s="116" t="s">
+        <v>531</v>
+      </c>
+      <c r="F25" s="19">
+        <v>451</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="27">
+        <f>IF(F25="","",(G25*F25))</f>
+        <v>451</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="117" t="s">
+        <v>526</v>
+      </c>
       <c r="M25" s="122"/>
       <c r="N25" s="1"/>
       <c r="O25" s="24"/>
@@ -7558,18 +8029,6 @@
       <c r="AD25" s="34"/>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I26" s="16"/>
       <c r="M26" s="122"/>
       <c r="N26" s="1"/>
       <c r="O26" s="24"/>
@@ -7587,18 +8046,6 @@
       <c r="AD26" s="34"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I27" s="16"/>
       <c r="M27" s="122"/>
       <c r="N27" s="1"/>
       <c r="O27" s="24"/>
@@ -7614,22 +8061,7 @@
       <c r="AD27" s="34"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="27" t="str">
-        <f>IF(F28="","",(G28*F28))</f>
-        <v/>
-      </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
+      <c r="M28" s="122"/>
       <c r="N28" s="1"/>
       <c r="O28" s="24"/>
       <c r="R28" s="17"/>
@@ -7656,7 +8088,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H24:H29" si="4">IF(F29="","",(G29*F29))</f>
         <v/>
       </c>
       <c r="I29" s="16"/>
@@ -7803,8 +8235,8 @@
         <v>25</v>
       </c>
       <c r="C34" s="15">
-        <f>SUM(H35:H36)</f>
-        <v>211.99</v>
+        <f>SUM(H35:H39)</f>
+        <v>531.49699999999996</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="36"/>
@@ -7833,29 +8265,29 @@
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E35" s="116" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
       <c r="F35" s="37">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="G35" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="27">
         <f t="shared" si="5"/>
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>42</v>
@@ -7881,37 +8313,45 @@
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1">
       <c r="A36" s="119" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C36" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>536</v>
-      </c>
       <c r="E36" s="116" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F36" s="37">
         <v>79.989999999999995</v>
       </c>
       <c r="G36" s="16">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H36" s="27">
         <f t="shared" si="5"/>
-        <v>79.989999999999995</v>
+        <v>23.996999999999996</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J36" s="117" t="s">
-        <v>526</v>
-      </c>
-      <c r="M36" s="122"/>
+      <c r="J36" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="52" t="s">
+        <v>139</v>
+      </c>
       <c r="N36" s="1"/>
       <c r="O36" s="24"/>
       <c r="R36" s="17"/>
@@ -7927,23 +8367,34 @@
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="27" t="str">
+        <v>532</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="E37" s="116" t="s">
+        <v>602</v>
+      </c>
+      <c r="F37" s="19">
+        <v>180</v>
+      </c>
+      <c r="G37" s="16">
+        <v>1</v>
+      </c>
+      <c r="H37" s="27">
         <f t="shared" si="5"/>
-        <v/>
+        <v>180</v>
       </c>
       <c r="I37" s="16"/>
+      <c r="J37" s="117" t="s">
+        <v>526</v>
+      </c>
       <c r="M37" s="122"/>
       <c r="N37" s="1"/>
       <c r="O37" s="24"/>
@@ -7961,19 +8412,37 @@
       <c r="AD37" s="34"/>
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="27" t="str">
+      <c r="A38" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="E38" s="116" t="s">
+        <v>580</v>
+      </c>
+      <c r="F38" s="19">
+        <v>141</v>
+      </c>
+      <c r="G38" s="16">
+        <v>1</v>
+      </c>
+      <c r="H38" s="27">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
+        <v>141</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="117" t="s">
+        <v>526</v>
+      </c>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="17"/>
@@ -7993,22 +8462,44 @@
       <c r="AD38" s="34"/>
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="27" t="str">
+      <c r="A39" s="118" t="s">
+        <v>597</v>
+      </c>
+      <c r="B39" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>599</v>
+      </c>
+      <c r="E39" s="116" t="s">
+        <v>582</v>
+      </c>
+      <c r="F39" s="123">
+        <v>162</v>
+      </c>
+      <c r="G39">
+        <v>0.25</v>
+      </c>
+      <c r="H39" s="123">
         <f t="shared" si="5"/>
-        <v/>
+        <v>40.5</v>
       </c>
       <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="17"/>
+      <c r="J39" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="125" t="s">
+        <v>574</v>
+      </c>
       <c r="N39" s="1"/>
       <c r="O39" s="24"/>
       <c r="R39" s="17"/>
@@ -8417,8 +8908,8 @@
         <v>25</v>
       </c>
       <c r="C55" s="15">
-        <f>SUM(H56:H71)</f>
-        <v>227.45000000000002</v>
+        <f>SUM(H56:H90)</f>
+        <v>1120.355</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
@@ -8442,18 +8933,18 @@
       <c r="X55" s="1"/>
     </row>
     <row r="56" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A56" s="35" t="s">
-        <v>545</v>
+      <c r="A56" s="40" t="s">
+        <v>543</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="116" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F56" s="37">
         <v>7.99</v>
@@ -8477,8 +8968,8 @@
       <c r="L56" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M56" s="52" t="s">
-        <v>139</v>
+      <c r="M56" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="24"/>
@@ -8490,16 +8981,16 @@
     </row>
     <row r="57" spans="1:31" ht="15.75" customHeight="1">
       <c r="A57" s="118" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="E57" s="116" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F57" s="37">
         <v>12.99</v>
@@ -8520,8 +9011,8 @@
       <c r="L57" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M57" s="52" t="s">
-        <v>139</v>
+      <c r="M57" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N57" s="53"/>
       <c r="O57" s="24"/>
@@ -8550,16 +9041,16 @@
     </row>
     <row r="58" spans="1:31" ht="15.75" customHeight="1">
       <c r="A58" s="118" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B58" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="E58" s="116" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F58" s="37">
         <v>9.99</v>
@@ -8580,33 +9071,33 @@
       <c r="L58" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M58" s="52" t="s">
-        <v>139</v>
+      <c r="M58" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="24"/>
       <c r="R58" s="17"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="126" t="s">
+      <c r="T58" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="U58" s="127"/>
-      <c r="V58" s="127"/>
-      <c r="W58" s="128"/>
+      <c r="U58" s="129"/>
+      <c r="V58" s="129"/>
+      <c r="W58" s="130"/>
       <c r="X58" s="1"/>
     </row>
     <row r="59" spans="1:31" ht="15.75" customHeight="1">
       <c r="A59" s="118" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B59" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="E59" s="116" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F59" s="37">
         <v>13.15</v>
@@ -8627,8 +9118,8 @@
       <c r="L59" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M59" s="52" t="s">
-        <v>139</v>
+      <c r="M59" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N59" s="53"/>
       <c r="O59" s="24"/>
@@ -8648,16 +9139,16 @@
     </row>
     <row r="60" spans="1:31" ht="15.75" customHeight="1">
       <c r="A60" s="118" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B60" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="E60" s="116" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F60" s="37">
         <v>6.99</v>
@@ -8678,8 +9169,8 @@
       <c r="L60" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M60" s="52" t="s">
-        <v>139</v>
+      <c r="M60" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N60" s="53"/>
       <c r="O60" s="24"/>
@@ -8699,16 +9190,16 @@
     </row>
     <row r="61" spans="1:31" ht="15.75" customHeight="1">
       <c r="A61" s="118" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B61" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="E61" s="116" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F61" s="37">
         <v>9.99</v>
@@ -8729,8 +9220,8 @@
       <c r="L61" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M61" s="52" t="s">
-        <v>139</v>
+      <c r="M61" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N61" s="53"/>
       <c r="O61" s="24"/>
@@ -8750,16 +9241,16 @@
     </row>
     <row r="62" spans="1:31" ht="15.75" customHeight="1">
       <c r="A62" s="118" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B62" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="E62" s="116" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F62" s="37">
         <v>9.99</v>
@@ -8780,8 +9271,8 @@
       <c r="L62" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M62" s="52" t="s">
-        <v>139</v>
+      <c r="M62" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N62" s="53"/>
       <c r="O62" s="24"/>
@@ -8801,16 +9292,16 @@
     </row>
     <row r="63" spans="1:31" ht="15.75" customHeight="1">
       <c r="A63" s="118" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B63" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="E63" s="116" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F63" s="37">
         <v>7.41</v>
@@ -8831,8 +9322,8 @@
       <c r="L63" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M63" s="52" t="s">
-        <v>139</v>
+      <c r="M63" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N63" s="53"/>
       <c r="O63" s="24"/>
@@ -8852,16 +9343,16 @@
     </row>
     <row r="64" spans="1:31" ht="15.75" customHeight="1">
       <c r="A64" s="118" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B64" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="D64" s="118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F64" s="37">
         <v>5.09</v>
@@ -8882,8 +9373,8 @@
       <c r="L64" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M64" s="52" t="s">
-        <v>139</v>
+      <c r="M64" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N64" s="53"/>
       <c r="O64" s="24"/>
@@ -8908,16 +9399,16 @@
     </row>
     <row r="65" spans="1:31" ht="15.75" customHeight="1">
       <c r="A65" s="118" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B65" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="D65" s="118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F65" s="37">
         <v>5.09</v>
@@ -8938,8 +9429,8 @@
       <c r="L65" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M65" s="52" t="s">
-        <v>139</v>
+      <c r="M65" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N65" s="53"/>
       <c r="O65" s="24"/>
@@ -8959,16 +9450,16 @@
     </row>
     <row r="66" spans="1:31" ht="15.75" customHeight="1">
       <c r="A66" s="118" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B66" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="D66" s="118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F66" s="37">
         <v>3.39</v>
@@ -8989,8 +9480,8 @@
       <c r="L66" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M66" s="52" t="s">
-        <v>139</v>
+      <c r="M66" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="24"/>
@@ -9002,16 +9493,16 @@
     </row>
     <row r="67" spans="1:31" ht="15.75" customHeight="1">
       <c r="A67" s="118" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B67" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="D67" s="118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F67" s="37">
         <v>8.49</v>
@@ -9032,8 +9523,8 @@
       <c r="L67" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M67" s="52" t="s">
-        <v>139</v>
+      <c r="M67" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="24"/>
@@ -9045,16 +9536,16 @@
     </row>
     <row r="68" spans="1:31" ht="15.75" customHeight="1">
       <c r="A68" s="118" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="B68" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="D68" s="118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F68" s="37">
         <v>6.79</v>
@@ -9075,8 +9566,8 @@
       <c r="L68" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M68" s="52" t="s">
-        <v>139</v>
+      <c r="M68" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="24"/>
@@ -9084,9 +9575,11 @@
         <v>526</v>
       </c>
       <c r="Q68" s="125" t="s">
-        <v>576</v>
-      </c>
-      <c r="R68" s="17"/>
+        <v>574</v>
+      </c>
+      <c r="R68" s="126" t="s">
+        <v>584</v>
+      </c>
       <c r="S68" s="1"/>
       <c r="T68" s="24"/>
       <c r="W68" s="17"/>
@@ -9094,16 +9587,16 @@
     </row>
     <row r="69" spans="1:31" ht="15.75" customHeight="1" thickBot="1">
       <c r="A69" s="118" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B69" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="D69" s="118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F69" s="37">
         <v>2.54</v>
@@ -9124,8 +9617,8 @@
       <c r="L69" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M69" s="52" t="s">
-        <v>139</v>
+      <c r="M69" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="18" t="s">
@@ -9157,16 +9650,16 @@
     </row>
     <row r="70" spans="1:31" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A70" s="118" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B70" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="D70" s="118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F70" s="37">
         <v>3.05</v>
@@ -9187,8 +9680,8 @@
       <c r="L70" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M70" s="52" t="s">
-        <v>139</v>
+      <c r="M70" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="12" t="s">
@@ -9220,16 +9713,16 @@
     </row>
     <row r="71" spans="1:31" ht="15.75" customHeight="1" thickTop="1">
       <c r="A71" s="118" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B71" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="D71" s="118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F71" s="37">
         <v>3.39</v>
@@ -9250,8 +9743,8 @@
       <c r="L71" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M71" s="52" t="s">
-        <v>139</v>
+      <c r="M71" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="63"/>
@@ -9266,6 +9759,18 @@
       <c r="X71" s="1"/>
     </row>
     <row r="72" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A72" s="118" t="s">
+        <v>572</v>
+      </c>
+      <c r="B72" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D72" s="118" t="s">
+        <v>565</v>
+      </c>
       <c r="F72" s="37">
         <v>4.92</v>
       </c>
@@ -9285,8 +9790,8 @@
       <c r="L72" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M72" s="52" t="s">
-        <v>139</v>
+      <c r="M72" s="126" t="s">
+        <v>584</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="13" t="s">
@@ -9318,11 +9823,43 @@
       <c r="X72" s="1"/>
     </row>
     <row r="73" spans="1:31" ht="15.75" customHeight="1">
-      <c r="H73" s="123" t="str">
+      <c r="A73" s="119" t="s">
+        <v>577</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="E73" s="116" t="s">
+        <v>576</v>
+      </c>
+      <c r="F73" s="37">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="G73" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="H73" s="27">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M73" s="122"/>
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="J73" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L73" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M73" s="125" t="s">
+        <v>574</v>
+      </c>
       <c r="N73" s="53"/>
       <c r="O73" s="18" t="s">
         <v>24</v>
@@ -9359,18 +9896,69 @@
       <c r="AE73" s="55"/>
     </row>
     <row r="74" spans="1:31" ht="15.75" customHeight="1">
-      <c r="H74" s="123" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M74" s="122"/>
+      <c r="A74" s="119" t="s">
+        <v>577</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="E74" s="116" t="s">
+        <v>576</v>
+      </c>
+      <c r="F74" s="37">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="G74" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="H74" s="27">
+        <f t="shared" ref="H74" si="7">IF(F74="","",(G74*F74))</f>
+        <v>31.995999999999999</v>
+      </c>
+      <c r="J74" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L74" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M74" s="125" t="s">
+        <v>574</v>
+      </c>
       <c r="N74" s="53"/>
-      <c r="O74" s="24"/>
-      <c r="R74" s="17"/>
+      <c r="O74" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P74" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q74" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="R74" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="S74" s="53"/>
-      <c r="T74" s="24"/>
-      <c r="U74" s="19"/>
-      <c r="W74" s="17"/>
+      <c r="T74" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="U74" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="V74" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="W74" s="69">
+        <v>100</v>
+      </c>
       <c r="X74" s="53"/>
       <c r="Y74" s="55"/>
       <c r="Z74" s="55"/>
@@ -9381,11 +9969,43 @@
       <c r="AE74" s="55"/>
     </row>
     <row r="75" spans="1:31" ht="15.75" customHeight="1">
-      <c r="H75" s="123" t="str">
+      <c r="A75" t="s">
+        <v>588</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="D75" t="s">
+        <v>590</v>
+      </c>
+      <c r="E75" t="s">
+        <v>591</v>
+      </c>
+      <c r="F75" s="127">
+        <v>59</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" s="123">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M75" s="122"/>
+        <v>118</v>
+      </c>
+      <c r="J75" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L75" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="M75" s="125" t="s">
+        <v>574</v>
+      </c>
       <c r="N75" s="53"/>
       <c r="O75" s="24"/>
       <c r="R75" s="17"/>
@@ -9413,11 +10033,43 @@
       <c r="AE75" s="55"/>
     </row>
     <row r="76" spans="1:31" ht="15.75" customHeight="1">
-      <c r="H76" s="123" t="str">
+      <c r="A76" t="s">
+        <v>588</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="D76" t="s">
+        <v>592</v>
+      </c>
+      <c r="E76" t="s">
+        <v>591</v>
+      </c>
+      <c r="F76" s="127">
+        <v>59</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" s="123">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M76" s="122"/>
+        <v>59</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L76" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="M76" s="125" t="s">
+        <v>574</v>
+      </c>
       <c r="N76" s="1"/>
       <c r="O76" s="24"/>
       <c r="R76" s="17"/>
@@ -9427,11 +10079,43 @@
       <c r="X76" s="1"/>
     </row>
     <row r="77" spans="1:31" ht="15.75" customHeight="1">
-      <c r="H77" s="123" t="str">
+      <c r="A77" t="s">
+        <v>588</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="D77" t="s">
+        <v>593</v>
+      </c>
+      <c r="E77" t="s">
+        <v>591</v>
+      </c>
+      <c r="F77" s="123">
+        <v>59</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" s="123">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M77" s="122"/>
+        <v>59</v>
+      </c>
+      <c r="J77" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L77" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="M77" s="125" t="s">
+        <v>574</v>
+      </c>
       <c r="N77" s="1"/>
       <c r="O77" s="24"/>
       <c r="R77" s="17"/>
@@ -9441,11 +10125,43 @@
       <c r="X77" s="1"/>
     </row>
     <row r="78" spans="1:31" ht="15.75" customHeight="1">
-      <c r="H78" s="123" t="str">
+      <c r="A78" t="s">
+        <v>594</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D78" s="118" t="s">
+        <v>595</v>
+      </c>
+      <c r="E78" s="116" t="s">
+        <v>596</v>
+      </c>
+      <c r="F78" s="123">
+        <v>9.99</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" s="123">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M78" s="122"/>
+        <v>9.99</v>
+      </c>
+      <c r="J78" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L78" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="M78" s="125" t="s">
+        <v>574</v>
+      </c>
       <c r="N78" s="1"/>
       <c r="O78" s="24"/>
       <c r="R78" s="17"/>
@@ -9455,11 +10171,43 @@
       <c r="X78" s="1"/>
     </row>
     <row r="79" spans="1:31" ht="15.75" customHeight="1">
-      <c r="H79" s="123" t="str">
+      <c r="A79" s="118" t="s">
+        <v>597</v>
+      </c>
+      <c r="B79" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="D79" s="118" t="s">
+        <v>598</v>
+      </c>
+      <c r="E79" s="116" t="s">
+        <v>582</v>
+      </c>
+      <c r="F79" s="123">
+        <v>162</v>
+      </c>
+      <c r="G79">
+        <v>0.5</v>
+      </c>
+      <c r="H79" s="123">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M79" s="122"/>
+        <v>81</v>
+      </c>
+      <c r="J79" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L79" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M79" s="125" t="s">
+        <v>574</v>
+      </c>
       <c r="N79" s="1"/>
       <c r="O79" s="24"/>
       <c r="R79" s="17"/>
@@ -9469,11 +10217,43 @@
       <c r="X79" s="1"/>
     </row>
     <row r="80" spans="1:31" ht="15.75" customHeight="1">
-      <c r="H80" s="123" t="str">
+      <c r="A80" s="118" t="s">
+        <v>614</v>
+      </c>
+      <c r="B80" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="D80" s="118" t="s">
+        <v>617</v>
+      </c>
+      <c r="E80" s="116" t="s">
+        <v>616</v>
+      </c>
+      <c r="F80" s="127">
+        <v>24</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" s="123">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M80" s="122"/>
+        <v>24</v>
+      </c>
+      <c r="J80" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L80" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80" s="125" t="s">
+        <v>574</v>
+      </c>
       <c r="N80" s="1"/>
       <c r="O80" s="24"/>
       <c r="R80" s="17"/>
@@ -9482,10 +10262,31 @@
       <c r="W80" s="17"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="8:24" ht="15.75" customHeight="1">
-      <c r="H81" s="123" t="str">
+    <row r="81" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A81" t="s">
+        <v>618</v>
+      </c>
+      <c r="B81" s="118" t="s">
+        <v>605</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="E81" t="s">
+        <v>591</v>
+      </c>
+      <c r="F81" s="136">
+        <v>47</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81" s="123">
         <f t="shared" si="6"/>
-        <v/>
+        <v>188</v>
+      </c>
+      <c r="J81" s="117" t="s">
+        <v>526</v>
       </c>
       <c r="M81" s="122"/>
       <c r="N81" s="1"/>
@@ -9496,10 +10297,31 @@
       <c r="W81" s="17"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="8:24" ht="15.75" customHeight="1">
-      <c r="H82" s="123" t="str">
+    <row r="82" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A82" t="s">
+        <v>619</v>
+      </c>
+      <c r="B82" s="118" t="s">
+        <v>605</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="E82" t="s">
+        <v>591</v>
+      </c>
+      <c r="F82" s="136">
+        <v>107</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82" s="123">
         <f t="shared" si="6"/>
-        <v/>
+        <v>214</v>
+      </c>
+      <c r="J82" s="117" t="s">
+        <v>526</v>
       </c>
       <c r="M82" s="122"/>
       <c r="N82" s="1"/>
@@ -9511,10 +10333,31 @@
       <c r="W82" s="17"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="8:24" ht="15.75" customHeight="1">
-      <c r="H83" s="123" t="str">
+    <row r="83" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A83" t="s">
+        <v>620</v>
+      </c>
+      <c r="B83" s="118" t="s">
+        <v>605</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="E83" t="s">
+        <v>591</v>
+      </c>
+      <c r="F83" s="136">
+        <v>42</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" s="123">
         <f t="shared" si="6"/>
-        <v/>
+        <v>42</v>
+      </c>
+      <c r="J83" s="117" t="s">
+        <v>526</v>
       </c>
       <c r="M83" s="122"/>
       <c r="N83" s="1"/>
@@ -9525,10 +10368,31 @@
       <c r="W83" s="17"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="8:24" ht="15.75" customHeight="1">
-      <c r="H84" s="123" t="str">
+    <row r="84" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A84" s="118" t="s">
+        <v>621</v>
+      </c>
+      <c r="B84" s="118" t="s">
+        <v>605</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="E84" t="s">
+        <v>591</v>
+      </c>
+      <c r="F84" s="136">
+        <v>53</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" s="123">
         <f t="shared" si="6"/>
-        <v/>
+        <v>53</v>
+      </c>
+      <c r="J84" s="117" t="s">
+        <v>526</v>
       </c>
       <c r="M84" s="122"/>
       <c r="N84" s="1"/>
@@ -9539,7 +10403,7 @@
       <c r="W84" s="17"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="8:24" ht="15.75" customHeight="1">
+    <row r="85" spans="1:24" ht="15.75" customHeight="1">
       <c r="H85" s="123" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -9553,7 +10417,7 @@
       <c r="W85" s="17"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="8:24" ht="15.75" customHeight="1">
+    <row r="86" spans="1:24" ht="15.75" customHeight="1">
       <c r="H86" s="123" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -9567,9 +10431,9 @@
       <c r="W86" s="17"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="8:24" ht="15.75" customHeight="1">
+    <row r="87" spans="1:24" ht="15.75" customHeight="1">
       <c r="H87" s="123" t="str">
-        <f t="shared" ref="H87:H103" si="7">IF(F87="","",(G87*F87))</f>
+        <f t="shared" ref="H87:H104" si="8">IF(F87="","",(G87*F87))</f>
         <v/>
       </c>
       <c r="M87" s="122"/>
@@ -9581,9 +10445,9 @@
       <c r="W87" s="17"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="8:24" ht="15.75" customHeight="1">
+    <row r="88" spans="1:24" ht="15.75" customHeight="1">
       <c r="H88" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M88" s="122"/>
@@ -9595,9 +10459,9 @@
       <c r="W88" s="17"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="8:24" ht="15.75" customHeight="1">
+    <row r="89" spans="1:24" ht="15.75" customHeight="1">
       <c r="H89" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M89" s="122"/>
@@ -9609,9 +10473,9 @@
       <c r="W89" s="17"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="8:24" ht="15.75" customHeight="1">
+    <row r="90" spans="1:24" ht="15.75" customHeight="1">
       <c r="H90" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M90" s="122"/>
@@ -9623,9 +10487,9 @@
       <c r="W90" s="17"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="8:24" ht="15.75" customHeight="1">
+    <row r="91" spans="1:24" ht="15.75" customHeight="1">
       <c r="H91" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M91" s="122"/>
@@ -9637,9 +10501,9 @@
       <c r="W91" s="17"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="8:24" ht="15.75" customHeight="1">
+    <row r="92" spans="1:24" ht="15.75" customHeight="1">
       <c r="H92" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M92" s="122"/>
@@ -9651,9 +10515,9 @@
       <c r="W92" s="17"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="8:24" ht="15.75" customHeight="1">
+    <row r="93" spans="1:24" ht="15.75" customHeight="1">
       <c r="H93" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M93" s="122"/>
@@ -9665,9 +10529,9 @@
       <c r="W93" s="17"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="8:24" ht="15.75" customHeight="1">
+    <row r="94" spans="1:24" ht="15.75" customHeight="1">
       <c r="H94" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M94" s="122"/>
@@ -9679,9 +10543,9 @@
       <c r="W94" s="17"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="8:24" ht="15.75" customHeight="1">
+    <row r="95" spans="1:24" ht="15.75" customHeight="1">
       <c r="H95" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M95" s="122"/>
@@ -9693,9 +10557,9 @@
       <c r="W95" s="17"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="8:24" ht="15.75" customHeight="1">
+    <row r="96" spans="1:24" ht="15.75" customHeight="1">
       <c r="H96" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M96" s="122"/>
@@ -9709,7 +10573,7 @@
     </row>
     <row r="97" spans="1:24" ht="15.75" customHeight="1">
       <c r="H97" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M97" s="122"/>
@@ -9723,7 +10587,7 @@
     </row>
     <row r="98" spans="1:24" ht="15.75" customHeight="1">
       <c r="H98" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M98" s="122"/>
@@ -9737,7 +10601,7 @@
     </row>
     <row r="99" spans="1:24" ht="15.75" customHeight="1">
       <c r="H99" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M99" s="122"/>
@@ -9750,11 +10614,18 @@
       <c r="X99" s="1"/>
     </row>
     <row r="100" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A100" t="s">
-        <v>580</v>
+      <c r="A100" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="15">
+        <f>SUM(H101:H116)</f>
+        <v>280.64</v>
       </c>
       <c r="H100" s="123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M100" s="122"/>
@@ -9768,16 +10639,36 @@
     </row>
     <row r="101" spans="1:24" ht="15.75" customHeight="1">
       <c r="A101" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E101" s="116" t="s">
-        <v>582</v>
-      </c>
-      <c r="H101" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M101" s="122"/>
+        <v>579</v>
+      </c>
+      <c r="F101" s="127">
+        <v>59</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" s="123">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="I101" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="J101" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K101" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L101" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" s="52" t="s">
+        <v>139</v>
+      </c>
       <c r="N101" s="1"/>
       <c r="O101" s="24"/>
       <c r="R101" s="17"/>
@@ -9787,11 +10678,46 @@
       <c r="X101" s="1"/>
     </row>
     <row r="102" spans="1:24" ht="15.75" customHeight="1">
-      <c r="H102" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M102" s="122"/>
+      <c r="A102" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="E102" s="116" t="s">
+        <v>580</v>
+      </c>
+      <c r="F102" s="19">
+        <v>141</v>
+      </c>
+      <c r="G102" s="16">
+        <v>1</v>
+      </c>
+      <c r="H102" s="27">
+        <f t="shared" si="8"/>
+        <v>141</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J102" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K102" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L102" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="M102" s="125" t="s">
+        <v>574</v>
+      </c>
       <c r="N102" s="1"/>
       <c r="O102" s="24"/>
       <c r="R102" s="17"/>
@@ -9801,9 +10727,30 @@
       <c r="X102" s="1"/>
     </row>
     <row r="103" spans="1:24" ht="15.75" customHeight="1">
-      <c r="H103" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="A103" s="118" t="s">
+        <v>609</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="D103" s="118" t="s">
+        <v>608</v>
+      </c>
+      <c r="F103" s="127">
+        <v>27.64</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" s="123">
+        <f t="shared" si="8"/>
+        <v>27.64</v>
+      </c>
+      <c r="J103" s="117" t="s">
+        <v>526</v>
       </c>
       <c r="M103" s="122"/>
       <c r="N103" s="1"/>
@@ -9815,6 +10762,31 @@
       <c r="X103" s="1"/>
     </row>
     <row r="104" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A104" s="118" t="s">
+        <v>621</v>
+      </c>
+      <c r="B104" s="118" t="s">
+        <v>605</v>
+      </c>
+      <c r="C104" s="118" t="s">
+        <v>587</v>
+      </c>
+      <c r="E104" t="s">
+        <v>591</v>
+      </c>
+      <c r="F104" s="136">
+        <v>53</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" s="123">
+        <f t="shared" ref="H104:H142" si="9">IF(F104="","",(G104*F104))</f>
+        <v>53</v>
+      </c>
+      <c r="J104" s="117" t="s">
+        <v>526</v>
+      </c>
       <c r="M104" s="122"/>
       <c r="N104" s="1"/>
       <c r="O104" s="24"/>
@@ -9825,6 +10797,10 @@
       <c r="X104" s="1"/>
     </row>
     <row r="105" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H105" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M105" s="122"/>
       <c r="N105" s="1"/>
       <c r="O105" s="24"/>
@@ -9835,6 +10811,10 @@
       <c r="X105" s="1"/>
     </row>
     <row r="106" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H106" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M106" s="122"/>
       <c r="N106" s="1"/>
       <c r="O106" s="24"/>
@@ -9845,6 +10825,10 @@
       <c r="X106" s="1"/>
     </row>
     <row r="107" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H107" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M107" s="122"/>
       <c r="N107" s="1"/>
       <c r="O107" s="24"/>
@@ -9855,6 +10839,10 @@
       <c r="X107" s="1"/>
     </row>
     <row r="108" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H108" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M108" s="122"/>
       <c r="N108" s="1"/>
       <c r="O108" s="24"/>
@@ -9866,6 +10854,10 @@
       <c r="X108" s="1"/>
     </row>
     <row r="109" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H109" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M109" s="122"/>
       <c r="N109" s="1"/>
       <c r="O109" s="24"/>
@@ -9877,6 +10869,10 @@
       <c r="X109" s="1"/>
     </row>
     <row r="110" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H110" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M110" s="122"/>
       <c r="N110" s="1"/>
       <c r="O110" s="24"/>
@@ -9888,6 +10884,10 @@
       <c r="X110" s="1"/>
     </row>
     <row r="111" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H111" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M111" s="122"/>
       <c r="N111" s="1"/>
       <c r="O111" s="24"/>
@@ -9899,6 +10899,10 @@
       <c r="X111" s="1"/>
     </row>
     <row r="112" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H112" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M112" s="122"/>
       <c r="N112" s="1"/>
       <c r="O112" s="24"/>
@@ -9910,6 +10914,10 @@
       <c r="X112" s="1"/>
     </row>
     <row r="113" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H113" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M113" s="122"/>
       <c r="N113" s="1"/>
       <c r="O113" s="24"/>
@@ -9921,6 +10929,10 @@
       <c r="X113" s="1"/>
     </row>
     <row r="114" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H114" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M114" s="122"/>
       <c r="N114" s="1"/>
       <c r="O114" s="24"/>
@@ -9932,6 +10944,10 @@
       <c r="X114" s="1"/>
     </row>
     <row r="115" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H115" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M115" s="122"/>
       <c r="N115" s="1"/>
       <c r="O115" s="24"/>
@@ -9943,6 +10959,10 @@
       <c r="X115" s="1"/>
     </row>
     <row r="116" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H116" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M116" s="122"/>
       <c r="N116" s="1"/>
       <c r="O116" s="24"/>
@@ -9954,6 +10974,10 @@
       <c r="X116" s="1"/>
     </row>
     <row r="117" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H117" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M117" s="122"/>
       <c r="N117" s="1"/>
       <c r="O117" s="84"/>
@@ -9968,42 +10992,82 @@
       <c r="X117" s="1"/>
     </row>
     <row r="118" spans="1:24" ht="15.75" customHeight="1" thickTop="1">
+      <c r="H118" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M118" s="122"/>
       <c r="P118" s="19"/>
     </row>
     <row r="119" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H119" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M119" s="122"/>
       <c r="P119" s="19"/>
     </row>
     <row r="120" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H120" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M120" s="122"/>
       <c r="P120" s="19"/>
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H121" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M121" s="122"/>
       <c r="P121" s="19"/>
     </row>
     <row r="122" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H122" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M122" s="122"/>
       <c r="P122" s="19"/>
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H123" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M123" s="122"/>
       <c r="P123" s="19"/>
     </row>
     <row r="124" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H124" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M124" s="122"/>
       <c r="P124" s="19"/>
     </row>
     <row r="125" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H125" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M125" s="122"/>
       <c r="P125" s="19"/>
     </row>
     <row r="126" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H126" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M126" s="120"/>
       <c r="P126" s="19"/>
     </row>
     <row r="127" spans="1:24" ht="15.75" customHeight="1">
+      <c r="H127" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="M127" s="120"/>
       <c r="P127" s="19"/>
     </row>
@@ -10015,7 +11079,10 @@
       <c r="E128" s="16"/>
       <c r="F128" s="19"/>
       <c r="G128" s="16"/>
-      <c r="H128" s="19"/>
+      <c r="H128" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I128" s="16"/>
       <c r="J128" s="16"/>
       <c r="K128" s="16"/>
@@ -10031,7 +11098,10 @@
       <c r="E129" s="16"/>
       <c r="F129" s="19"/>
       <c r="G129" s="16"/>
-      <c r="H129" s="19"/>
+      <c r="H129" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I129" s="16"/>
       <c r="J129" s="16"/>
       <c r="K129" s="16"/>
@@ -10047,7 +11117,10 @@
       <c r="E130" s="16"/>
       <c r="F130" s="19"/>
       <c r="G130" s="16"/>
-      <c r="H130" s="19"/>
+      <c r="H130" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I130" s="16"/>
       <c r="J130" s="16"/>
       <c r="K130" s="16"/>
@@ -10063,7 +11136,10 @@
       <c r="E131" s="16"/>
       <c r="F131" s="19"/>
       <c r="G131" s="16"/>
-      <c r="H131" s="19"/>
+      <c r="H131" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I131" s="16"/>
       <c r="J131" s="16"/>
       <c r="K131" s="16"/>
@@ -10079,7 +11155,10 @@
       <c r="E132" s="45"/>
       <c r="F132" s="19"/>
       <c r="G132" s="45"/>
-      <c r="H132" s="19"/>
+      <c r="H132" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I132" s="45"/>
       <c r="J132" s="45"/>
       <c r="K132" s="45"/>
@@ -10095,7 +11174,10 @@
       <c r="E133" s="39"/>
       <c r="F133" s="19"/>
       <c r="G133" s="16"/>
-      <c r="H133" s="19"/>
+      <c r="H133" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I133" s="16"/>
       <c r="J133" s="16"/>
       <c r="K133" s="16"/>
@@ -10111,7 +11193,10 @@
       <c r="E134" s="39"/>
       <c r="F134" s="19"/>
       <c r="G134" s="16"/>
-      <c r="H134" s="19"/>
+      <c r="H134" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I134" s="16"/>
       <c r="J134" s="16"/>
       <c r="K134" s="16"/>
@@ -10127,7 +11212,10 @@
       <c r="E135" s="16"/>
       <c r="F135" s="19"/>
       <c r="G135" s="16"/>
-      <c r="H135" s="19"/>
+      <c r="H135" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I135" s="16"/>
       <c r="J135" s="16"/>
       <c r="K135" s="16"/>
@@ -10143,7 +11231,10 @@
       <c r="E136" s="16"/>
       <c r="F136" s="19"/>
       <c r="G136" s="16"/>
-      <c r="H136" s="19"/>
+      <c r="H136" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I136" s="16"/>
       <c r="J136" s="16"/>
       <c r="K136" s="16"/>
@@ -10159,7 +11250,10 @@
       <c r="E137" s="16"/>
       <c r="F137" s="19"/>
       <c r="G137" s="16"/>
-      <c r="H137" s="19"/>
+      <c r="H137" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I137" s="16"/>
       <c r="J137" s="16"/>
       <c r="K137" s="16"/>
@@ -10175,7 +11269,10 @@
       <c r="E138" s="16"/>
       <c r="F138" s="19"/>
       <c r="G138" s="16"/>
-      <c r="H138" s="19"/>
+      <c r="H138" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I138" s="16"/>
       <c r="J138" s="16"/>
       <c r="K138" s="16"/>
@@ -10191,7 +11288,10 @@
       <c r="E139" s="16"/>
       <c r="F139" s="19"/>
       <c r="G139" s="16"/>
-      <c r="H139" s="19"/>
+      <c r="H139" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I139" s="16"/>
       <c r="J139" s="16"/>
       <c r="K139" s="16"/>
@@ -10207,7 +11307,10 @@
       <c r="E140" s="16"/>
       <c r="F140" s="19"/>
       <c r="G140" s="16"/>
-      <c r="H140" s="19"/>
+      <c r="H140" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I140" s="16"/>
       <c r="J140" s="16"/>
       <c r="K140" s="16"/>
@@ -10223,7 +11326,10 @@
       <c r="E141" s="16"/>
       <c r="F141" s="19"/>
       <c r="G141" s="16"/>
-      <c r="H141" s="19"/>
+      <c r="H141" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I141" s="16"/>
       <c r="J141" s="16"/>
       <c r="K141" s="16"/>
@@ -10239,7 +11345,10 @@
       <c r="E142" s="16"/>
       <c r="F142" s="19"/>
       <c r="G142" s="16"/>
-      <c r="H142" s="19"/>
+      <c r="H142" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="I142" s="16"/>
       <c r="J142" s="16"/>
       <c r="K142" s="16"/>
@@ -12883,590 +13992,590 @@
     <row r="414" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="415" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="416" spans="1:16" ht="15.75" customHeight="1"/>
-    <row r="417" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="418" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="419" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="420" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="421" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="422" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="423" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="424" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="425" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="426" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="427" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="428" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="429" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="430" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="431" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="432" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="433" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="434" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="435" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="436" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="437" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="438" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="439" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="440" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="441" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="442" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="443" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="444" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="445" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="446" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="447" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="448" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="449" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="450" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="451" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="452" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="453" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="454" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="455" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="456" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="457" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="458" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="459" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="460" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="461" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="462" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="463" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="464" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="465" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="466" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="467" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="468" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="469" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="470" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="471" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="472" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="473" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="474" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="475" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="476" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="477" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="478" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="479" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="480" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="481" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="482" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="483" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="484" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="485" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="486" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="487" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="488" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="489" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="490" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="491" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="492" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="493" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="494" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="495" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="496" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="497" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="498" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="499" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="500" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="501" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="502" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="503" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="504" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="505" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="506" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="507" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="508" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="509" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="510" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="511" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="512" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="513" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="514" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="515" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="516" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="517" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="518" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="519" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="520" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="521" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="522" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="523" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="524" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="525" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="526" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="527" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="528" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="529" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="530" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="531" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="532" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="533" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="534" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="535" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="536" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="537" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="538" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="539" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="540" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="541" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="542" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="543" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="544" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="545" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="546" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="547" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="548" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="549" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="550" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="551" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="552" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="553" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="554" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="555" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="556" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="557" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="558" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="559" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="560" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="561" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="562" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="563" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="564" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="565" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="566" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="567" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="568" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="569" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="570" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="571" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="572" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="573" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="574" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="575" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="576" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="577" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="578" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="579" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="580" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="581" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="582" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="583" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="584" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="585" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="586" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="587" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="588" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="589" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="590" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="591" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="592" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="593" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="594" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="595" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="596" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="597" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="598" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="599" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="600" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="601" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="602" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="603" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="604" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="605" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="606" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="607" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="608" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="609" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="610" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="611" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="612" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="613" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="614" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="615" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="616" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="617" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="618" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="619" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="620" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="621" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="622" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="623" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="624" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="625" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="626" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="627" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="628" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="629" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="630" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="631" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="632" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="633" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="634" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="635" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="636" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="637" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="638" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="639" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="640" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="641" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="642" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="643" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="644" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="645" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="646" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="647" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="648" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="649" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="650" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="651" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="652" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="653" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="654" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="655" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="656" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="657" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="658" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="659" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="660" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="661" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="662" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="663" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="664" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="665" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="666" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="667" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="668" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="669" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="670" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="671" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="672" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="673" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="674" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="675" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="676" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="677" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="678" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="679" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="680" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="681" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="682" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="683" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="684" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="685" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="686" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="687" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="688" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="689" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="690" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="691" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="692" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="693" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="694" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="695" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="696" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="697" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="698" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="699" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="700" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="701" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="702" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="703" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="704" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="705" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="706" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="707" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="708" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="709" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="710" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="711" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="712" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="713" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="714" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="715" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="716" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="717" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="718" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="719" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="720" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="721" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="722" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="723" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="724" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="725" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="726" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="727" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="728" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="729" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="730" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="731" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="732" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="733" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="734" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="735" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="736" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="737" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="738" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="739" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="740" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="741" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="742" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="743" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="744" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="745" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="746" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="747" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="748" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="749" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="750" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="751" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="752" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="753" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="754" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="755" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="756" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="757" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="758" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="759" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="760" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="761" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="762" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="763" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="764" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="765" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="766" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="767" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="768" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="769" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="770" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="771" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="772" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="773" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="774" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="775" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="776" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="777" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="778" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="779" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="780" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="781" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="782" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="783" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="784" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="785" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="786" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="787" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="788" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="789" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="790" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="791" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="792" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="793" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="794" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="795" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="796" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="797" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="798" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="799" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="800" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="801" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="802" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="803" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="804" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="805" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="806" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="807" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="808" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="809" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="810" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="811" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="812" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="813" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="814" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="815" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="816" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="817" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="818" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="819" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="820" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="821" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="822" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="823" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="824" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="825" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="826" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="827" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="828" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="829" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="830" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="831" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="832" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="833" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="834" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="835" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="836" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="837" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="838" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="839" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="840" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="841" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="842" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="843" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="844" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="845" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="846" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="847" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="848" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="849" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="850" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="851" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="852" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="853" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="854" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="855" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="856" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="857" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="858" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="859" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="860" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="861" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="862" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="863" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="864" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="865" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="866" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="867" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="868" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="869" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="870" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="871" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="872" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="873" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="874" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="875" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="876" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="877" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="878" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="879" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="880" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="881" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="882" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="883" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="884" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="885" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="886" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="887" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="888" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="889" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="890" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="891" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="892" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="893" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="894" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="895" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="896" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="897" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="898" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="899" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="900" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="901" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="902" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="903" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="904" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="905" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="906" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="907" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="908" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="909" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="910" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="911" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="912" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="913" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="914" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="915" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="916" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="917" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="918" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="919" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="920" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="921" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="922" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="923" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="924" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="925" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="926" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="927" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="928" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="929" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="930" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="931" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="932" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="933" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="934" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="935" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="936" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="937" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="938" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="939" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="940" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="941" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="942" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="943" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="944" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="945" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="946" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="947" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="948" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="949" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="950" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="951" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="952" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="953" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="954" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="955" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="956" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="957" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="958" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="959" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="960" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="961" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="962" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="963" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="964" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="965" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="966" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="967" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="968" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="969" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="970" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="971" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="972" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="973" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="974" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="975" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="976" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="977" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="978" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="979" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="980" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="981" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="982" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="983" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="984" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="985" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="986" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="987" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="988" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="989" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="990" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="991" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="992" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="993" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="994" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="995" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="996" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="997" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="998" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="999" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="1000" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="T58:W58"/>
@@ -13478,44 +14587,53 @@
     <mergeCell ref="T6:U6"/>
   </mergeCells>
   <conditionalFormatting sqref="D55:M55">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(D55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57:N65 S57:S65 X57:AE65 N72:N117 S72:S117 X72:AE117 T76:W117 O108:R117">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(N57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{307D84A4-1683-45C5-9B90-A8AB27FD4A4F}"/>
-    <hyperlink ref="E12" r:id="rId2" display="https://www.airbnb.com/rooms/28617569?adults=10&amp;check_in=2025-06-20&amp;check_out=2025-06-29&amp;search_mode=regular_search&amp;source_impression_id=p3_1740547465_P3Upm7mXYEfRd2cw&amp;previous_page_section_name=1000&amp;federated_search_id=8e4d2b5e-b93a-4f2d-a854-e8383675cb0d" xr:uid="{D6F37B76-CCE8-41B4-A166-7D0A9B623B73}"/>
-    <hyperlink ref="E35" r:id="rId3" display="https://www.shapirosupply.com/aluminum-6061-t6-sheet-w-pvc-1-side-br-125-x-1-x-2.html" xr:uid="{48EFBE6F-2A0C-42AD-BA65-C48AFFB0F1F9}"/>
-    <hyperlink ref="E15" r:id="rId4" display="https://www.amazon.com/dp/B0BC1VH4XB?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1&amp;th=1" xr:uid="{4BA6E8AB-C223-462D-90D6-E13AE7132D74}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{D21C9772-00BC-4CCB-B910-80A273DFD728}"/>
-    <hyperlink ref="E16" r:id="rId6" display="https://www.amazon.com/dp/B07CYMR11Y?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{111A95B7-6809-4CF8-93A5-CE7953FF64BB}"/>
-    <hyperlink ref="E56" r:id="rId7" display="https://www.amazon.com/dp/B07FPLZXTF?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{440E17E5-32DE-46EE-973F-691BDD1BA40F}"/>
-    <hyperlink ref="E57" r:id="rId8" display="https://www.amazon.com/dp/B017S0R0BQ?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1&amp;th=1" xr:uid="{A4D22B91-FE06-4C77-9E97-DFD09247A579}"/>
-    <hyperlink ref="E58" r:id="rId9" xr:uid="{9FF469DD-A977-45F6-8593-E238E834DA26}"/>
-    <hyperlink ref="E59" r:id="rId10" display="https://www.amazon.com/dp/B01BU7038A?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{131A0885-CC55-4FFE-A8FC-D78EA993BE7B}"/>
-    <hyperlink ref="E60" r:id="rId11" display="https://www.amazon.com/dp/B09PF5WCZL?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1&amp;th=1" xr:uid="{486CE4B8-096C-4C39-8B32-70FD63DA75B1}"/>
-    <hyperlink ref="E61" r:id="rId12" display="https://www.amazon.com/dp/B0CPJF21KP?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{0F31386A-A957-44F3-95ED-9D614F2DAF78}"/>
-    <hyperlink ref="E62" r:id="rId13" xr:uid="{827F35A2-1ED4-4BE8-85F7-6943440C4FD7}"/>
-    <hyperlink ref="E17" r:id="rId14" xr:uid="{6026428C-AE37-4515-9C46-78B140E37E67}"/>
-    <hyperlink ref="E63" r:id="rId15" xr:uid="{AF93BD39-38FF-4FF7-9AA9-F9FB0245B9FF}"/>
-    <hyperlink ref="E18" r:id="rId16" display="https://www.amazon.com/dp/B0C6XLS3CT?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{1722CC90-C648-4234-8233-358B532E3D54}"/>
-    <hyperlink ref="E19" r:id="rId17" display="https://www.amazon.com/dp/B08TVLYB3Q?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1&amp;th=1" xr:uid="{A4E46ED3-3487-4D3E-A5DA-BCA72136E987}"/>
-    <hyperlink ref="E36" r:id="rId18" display="https://www.amazon.com/dp/B08PQPJYHX?ref=ppx_yo2ov_dt_b_fed_asin_title" xr:uid="{C57A72A9-40AF-4547-9693-AC015D139A5D}"/>
-    <hyperlink ref="E101" r:id="rId19" display="https://www.amazon.com/gp/product/B0B1V8D36H?smid=A3FZJTJP2FUJVA&amp;psc=1" xr:uid="{B928DAC3-AD15-48CD-9DB3-A8FADFC3338D}"/>
+    <hyperlink ref="E23" r:id="rId1" xr:uid="{307D84A4-1683-45C5-9B90-A8AB27FD4A4F}"/>
+    <hyperlink ref="E25" r:id="rId2" display="https://www.airbnb.com/rooms/28617569?adults=10&amp;check_in=2025-06-20&amp;check_out=2025-06-29&amp;search_mode=regular_search&amp;source_impression_id=p3_1740547465_P3Upm7mXYEfRd2cw&amp;previous_page_section_name=1000&amp;federated_search_id=8e4d2b5e-b93a-4f2d-a854-e8383675cb0d" xr:uid="{D6F37B76-CCE8-41B4-A166-7D0A9B623B73}"/>
+    <hyperlink ref="E11" r:id="rId3" display="https://www.amazon.com/dp/B0BC1VH4XB?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1&amp;th=1" xr:uid="{4BA6E8AB-C223-462D-90D6-E13AE7132D74}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{D21C9772-00BC-4CCB-B910-80A273DFD728}"/>
+    <hyperlink ref="E12" r:id="rId5" display="https://www.amazon.com/dp/B07CYMR11Y?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{111A95B7-6809-4CF8-93A5-CE7953FF64BB}"/>
+    <hyperlink ref="E56" r:id="rId6" display="https://www.amazon.com/dp/B07FPLZXTF?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{440E17E5-32DE-46EE-973F-691BDD1BA40F}"/>
+    <hyperlink ref="E57" r:id="rId7" display="https://www.amazon.com/dp/B017S0R0BQ?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1&amp;th=1" xr:uid="{A4D22B91-FE06-4C77-9E97-DFD09247A579}"/>
+    <hyperlink ref="E58" r:id="rId8" xr:uid="{9FF469DD-A977-45F6-8593-E238E834DA26}"/>
+    <hyperlink ref="E59" r:id="rId9" display="https://www.amazon.com/dp/B01BU7038A?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{131A0885-CC55-4FFE-A8FC-D78EA993BE7B}"/>
+    <hyperlink ref="E60" r:id="rId10" display="https://www.amazon.com/dp/B09PF5WCZL?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1&amp;th=1" xr:uid="{486CE4B8-096C-4C39-8B32-70FD63DA75B1}"/>
+    <hyperlink ref="E61" r:id="rId11" display="https://www.amazon.com/dp/B0CPJF21KP?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{0F31386A-A957-44F3-95ED-9D614F2DAF78}"/>
+    <hyperlink ref="E62" r:id="rId12" xr:uid="{827F35A2-1ED4-4BE8-85F7-6943440C4FD7}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{6026428C-AE37-4515-9C46-78B140E37E67}"/>
+    <hyperlink ref="E63" r:id="rId14" xr:uid="{AF93BD39-38FF-4FF7-9AA9-F9FB0245B9FF}"/>
+    <hyperlink ref="E14" r:id="rId15" display="https://www.amazon.com/dp/B0C6XLS3CT?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1" xr:uid="{1722CC90-C648-4234-8233-358B532E3D54}"/>
+    <hyperlink ref="E15" r:id="rId16" display="https://www.amazon.com/dp/B08TVLYB3Q?ref_=ppx_hzsearch_conn_dt_b_fed_asin_title_1&amp;th=1" xr:uid="{A4E46ED3-3487-4D3E-A5DA-BCA72136E987}"/>
+    <hyperlink ref="E36" r:id="rId17" display="https://www.amazon.com/dp/B08PQPJYHX?ref=ppx_yo2ov_dt_b_fed_asin_title" xr:uid="{C57A72A9-40AF-4547-9693-AC015D139A5D}"/>
+    <hyperlink ref="E101" r:id="rId18" display="https://www.amazon.com/gp/product/B0B1V8D36H?smid=A3FZJTJP2FUJVA&amp;psc=1" xr:uid="{B928DAC3-AD15-48CD-9DB3-A8FADFC3338D}"/>
+    <hyperlink ref="E38" r:id="rId19" location="detail" display="https://m.intl.taobao.com/detail/detail.html?spm=a230r.1.14.20.419a37c9WRBzbv&amp;id=597604313584&amp;ns=1&amp;abbucket=13 - detail" xr:uid="{1FFECB0E-138D-42A5-9F9C-B54F4CD2E467}"/>
+    <hyperlink ref="E73" r:id="rId20" display="https://www.amazon.com/dp/B08PQPJYHX?ref=ppx_yo2ov_dt_b_fed_asin_title" xr:uid="{DA677C59-4B98-494A-85F9-CAF840E53AFA}"/>
+    <hyperlink ref="E35" r:id="rId21" display="https://www.shapirosupply.com/aluminum-6061-t6-sheet-w-pvc-1-side-br-125-x-3-x-4-10719.html" xr:uid="{5D5E6103-9A66-4947-9466-6AC64594B18A}"/>
+    <hyperlink ref="E102" r:id="rId22" location="detail" display="https://m.intl.taobao.com/detail/detail.html?spm=a230r.1.14.20.419a37c9WRBzbv&amp;id=597604313584&amp;ns=1&amp;abbucket=13 - detail" xr:uid="{7471E294-928B-47E5-ACC8-8BF18B9D2969}"/>
+    <hyperlink ref="E74" r:id="rId23" display="https://www.amazon.com/dp/B08PQPJYHX?ref=ppx_yo2ov_dt_b_fed_asin_title" xr:uid="{AF81F5AF-702E-4F76-9633-F48211FD5C06}"/>
+    <hyperlink ref="E78" r:id="rId24" display="https://www.amazon.com/Carrier-10x10mm-Plastic-Connector-Screwdriver/dp/B096MK34FG/ref=asc_df_B096MK34FG/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693270340020&amp;hvpos=&amp;hvnetw=g&amp;hvrand=18348483203667539022&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9022860&amp;hvtargid=pla-1950583164845&amp;mcid=86cc09e81d9f3a3dab59edacf8c9f837&amp;th=1" xr:uid="{3CB96BA6-CF89-4C3B-BAFB-4933BAD4CFE7}"/>
+    <hyperlink ref="E79" r:id="rId25" display="https://www.shapirosupply.com/aluminum-6061-t6-sheet-w-pvc-1-side-br-125-x-3-x-4.html" xr:uid="{9DE2F796-7211-4BE8-8417-EF9325DD0E46}"/>
+    <hyperlink ref="E39" r:id="rId26" display="https://www.shapirosupply.com/aluminum-6061-t6-sheet-w-pvc-1-side-br-125-x-3-x-4.html" xr:uid="{9F8D0F9C-828B-4583-955D-5119CB34DB60}"/>
+    <hyperlink ref="E37" r:id="rId27" display="https://www.ebay.com/itm/267132911839?chn=ps&amp;norover=1&amp;itemid=267132911839&amp;targetid=4581046493380272&amp;device=c&amp;mktype=&amp;googleloc=&amp;poi=&amp;campaignid=603247657&amp;mkgroupid=1239150647972013&amp;rlsatarget=pla-4581046493380272&amp;abcId=9316139&amp;merchantid=51291" xr:uid="{926CF06D-55DB-4A2B-B4A8-103D81031493}"/>
+    <hyperlink ref="E80" r:id="rId28" display="https://www.shapirosupply.com/alloy-2024-aluminum-square-bar-1-1-2-x-1-1-2-x-24-3l4.html" xr:uid="{8AB90794-003F-49B9-BB52-803AFF61447D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId20"/>
+  <drawing r:id="rId29"/>
   <tableParts count="5">
-    <tablePart r:id="rId21"/>
-    <tablePart r:id="rId22"/>
-    <tablePart r:id="rId23"/>
-    <tablePart r:id="rId24"/>
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13557,14 +14675,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="45.75">
-      <c r="A1" s="129"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="130" t="s">
+      <c r="A1" s="131"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -13585,9 +14703,9 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="45.75">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -13611,9 +14729,9 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="45.75">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -13629,25 +14747,25 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="131" t="s">
+      <c r="O3" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="131" t="s">
+      <c r="T3" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="45.75">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
@@ -13665,21 +14783,21 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:30" ht="46.5" thickBot="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
@@ -13691,15 +14809,15 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
@@ -13743,10 +14861,10 @@
         <v>19</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="132" t="s">
+      <c r="O6" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="133"/>
+      <c r="P6" s="135"/>
       <c r="Q6" s="9" t="s">
         <v>21</v>
       </c>
@@ -13754,10 +14872,10 @@
         <v>22</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="132" t="s">
+      <c r="T6" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="133"/>
+      <c r="U6" s="135"/>
       <c r="V6" s="9" t="s">
         <v>21</v>
       </c>
@@ -16034,12 +17152,12 @@
       <c r="O58" s="24"/>
       <c r="R58" s="17"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="126" t="s">
+      <c r="T58" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="U58" s="127"/>
-      <c r="V58" s="127"/>
-      <c r="W58" s="128"/>
+      <c r="U58" s="129"/>
+      <c r="V58" s="129"/>
+      <c r="W58" s="130"/>
       <c r="X58" s="1"/>
     </row>
     <row r="59" spans="1:31" ht="15.75" customHeight="1">
@@ -22679,590 +23797,590 @@
     <row r="414" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="415" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="416" spans="1:16" ht="15.75" customHeight="1"/>
-    <row r="417" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="418" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="419" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="420" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="421" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="422" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="423" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="424" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="425" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="426" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="427" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="428" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="429" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="430" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="431" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="432" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="433" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="434" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="435" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="436" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="437" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="438" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="439" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="440" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="441" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="442" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="443" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="444" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="445" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="446" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="447" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="448" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="449" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="450" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="451" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="452" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="453" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="454" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="455" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="456" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="457" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="458" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="459" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="460" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="461" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="462" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="463" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="464" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="465" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="466" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="467" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="468" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="469" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="470" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="471" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="472" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="473" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="474" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="475" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="476" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="477" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="478" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="479" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="480" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="481" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="482" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="483" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="484" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="485" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="486" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="487" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="488" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="489" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="490" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="491" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="492" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="493" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="494" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="495" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="496" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="497" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="498" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="499" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="500" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="501" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="502" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="503" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="504" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="505" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="506" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="507" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="508" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="509" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="510" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="511" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="512" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="513" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="514" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="515" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="516" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="517" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="518" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="519" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="520" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="521" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="522" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="523" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="524" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="525" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="526" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="527" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="528" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="529" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="530" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="531" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="532" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="533" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="534" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="535" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="536" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="537" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="538" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="539" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="540" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="541" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="542" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="543" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="544" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="545" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="546" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="547" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="548" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="549" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="550" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="551" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="552" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="553" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="554" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="555" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="556" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="557" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="558" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="559" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="560" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="561" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="562" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="563" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="564" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="565" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="566" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="567" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="568" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="569" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="570" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="571" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="572" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="573" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="574" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="575" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="576" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="577" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="578" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="579" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="580" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="581" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="582" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="583" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="584" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="585" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="586" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="587" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="588" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="589" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="590" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="591" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="592" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="593" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="594" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="595" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="596" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="597" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="598" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="599" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="600" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="601" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="602" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="603" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="604" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="605" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="606" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="607" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="608" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="609" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="610" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="611" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="612" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="613" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="614" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="615" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="616" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="617" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="618" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="619" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="620" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="621" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="622" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="623" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="624" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="625" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="626" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="627" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="628" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="629" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="630" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="631" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="632" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="633" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="634" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="635" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="636" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="637" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="638" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="639" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="640" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="641" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="642" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="643" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="644" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="645" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="646" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="647" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="648" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="649" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="650" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="651" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="652" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="653" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="654" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="655" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="656" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="657" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="658" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="659" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="660" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="661" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="662" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="663" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="664" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="665" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="666" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="667" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="668" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="669" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="670" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="671" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="672" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="673" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="674" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="675" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="676" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="677" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="678" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="679" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="680" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="681" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="682" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="683" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="684" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="685" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="686" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="687" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="688" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="689" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="690" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="691" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="692" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="693" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="694" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="695" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="696" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="697" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="698" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="699" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="700" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="701" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="702" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="703" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="704" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="705" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="706" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="707" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="708" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="709" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="710" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="711" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="712" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="713" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="714" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="715" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="716" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="717" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="718" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="719" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="720" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="721" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="722" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="723" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="724" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="725" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="726" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="727" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="728" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="729" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="730" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="731" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="732" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="733" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="734" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="735" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="736" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="737" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="738" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="739" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="740" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="741" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="742" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="743" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="744" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="745" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="746" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="747" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="748" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="749" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="750" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="751" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="752" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="753" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="754" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="755" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="756" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="757" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="758" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="759" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="760" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="761" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="762" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="763" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="764" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="765" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="766" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="767" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="768" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="769" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="770" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="771" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="772" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="773" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="774" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="775" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="776" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="777" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="778" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="779" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="780" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="781" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="782" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="783" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="784" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="785" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="786" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="787" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="788" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="789" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="790" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="791" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="792" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="793" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="794" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="795" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="796" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="797" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="798" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="799" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="800" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="801" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="802" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="803" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="804" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="805" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="806" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="807" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="808" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="809" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="810" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="811" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="812" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="813" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="814" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="815" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="816" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="817" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="818" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="819" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="820" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="821" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="822" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="823" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="824" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="825" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="826" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="827" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="828" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="829" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="830" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="831" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="832" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="833" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="834" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="835" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="836" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="837" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="838" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="839" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="840" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="841" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="842" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="843" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="844" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="845" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="846" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="847" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="848" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="849" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="850" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="851" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="852" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="853" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="854" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="855" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="856" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="857" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="858" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="859" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="860" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="861" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="862" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="863" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="864" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="865" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="866" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="867" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="868" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="869" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="870" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="871" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="872" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="873" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="874" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="875" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="876" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="877" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="878" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="879" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="880" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="881" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="882" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="883" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="884" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="885" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="886" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="887" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="888" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="889" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="890" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="891" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="892" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="893" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="894" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="895" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="896" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="897" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="898" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="899" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="900" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="901" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="902" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="903" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="904" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="905" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="906" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="907" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="908" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="909" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="910" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="911" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="912" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="913" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="914" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="915" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="916" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="917" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="918" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="919" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="920" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="921" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="922" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="923" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="924" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="925" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="926" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="927" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="928" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="929" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="930" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="931" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="932" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="933" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="934" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="935" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="936" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="937" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="938" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="939" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="940" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="941" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="942" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="943" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="944" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="945" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="946" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="947" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="948" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="949" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="950" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="951" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="952" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="953" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="954" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="955" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="956" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="957" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="958" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="959" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="960" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="961" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="962" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="963" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="964" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="965" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="966" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="967" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="968" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="969" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="970" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="971" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="972" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="973" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="974" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="975" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="976" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="977" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="978" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="979" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="980" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="981" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="982" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="983" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="984" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="985" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="986" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="987" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="988" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="989" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="990" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="991" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="992" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="993" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="994" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="995" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="996" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="997" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="998" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="999" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="1000" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="T58:W58"/>
@@ -23274,12 +24392,12 @@
     <mergeCell ref="T6:U6"/>
   </mergeCells>
   <conditionalFormatting sqref="D55:M55">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(D55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57:N65 S57:S65 X57:AE65 N72:N117 S72:S117 X72:AE117 T76:W117 O108:R117">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(N57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23400,37 +24518,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="129"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="130" t="s">
+      <c r="A1" s="131"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="132" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
@@ -23438,8 +24556,8 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="2"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -27845,12 +28963,12 @@
     <mergeCell ref="C1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C30:F30">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(C30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:N72">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(G35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
